--- a/False News.xlsx
+++ b/False News.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justa\OneDrive\Desktop\Programs\Web\Projects\News-Detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1AB1BD-28DB-4C68-A76A-F89D8D21E8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F35E5CA-50B4-465B-ABBE-A625F4677E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8242,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1235" workbookViewId="0">
-      <selection activeCell="I1260" sqref="I1260"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18236,7504 +18236,7507 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1799</v>
+        <v>998</v>
       </c>
       <c r="B722" t="s">
-        <v>1800</v>
+        <v>999</v>
       </c>
       <c r="C722" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D722" t="s">
-        <v>1802</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1803</v>
+        <v>1002</v>
       </c>
       <c r="B723" t="s">
-        <v>1804</v>
+        <v>1003</v>
       </c>
       <c r="C723" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D723" t="s">
-        <v>1805</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1806</v>
+        <v>1005</v>
       </c>
       <c r="B724" t="s">
-        <v>1807</v>
+        <v>1006</v>
       </c>
       <c r="C724" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D724" t="s">
-        <v>1808</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1809</v>
+        <v>2030</v>
       </c>
       <c r="B725" t="s">
-        <v>1810</v>
+        <v>2031</v>
       </c>
       <c r="C725" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D725" t="s">
-        <v>1811</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1812</v>
+        <v>2033</v>
       </c>
       <c r="B726" t="s">
-        <v>1813</v>
+        <v>2034</v>
       </c>
       <c r="C726" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D726" t="s">
-        <v>1814</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1815</v>
+        <v>2035</v>
       </c>
       <c r="B727" t="s">
-        <v>1816</v>
+        <v>2036</v>
       </c>
       <c r="C727" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D727" t="s">
-        <v>1817</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>1818</v>
+        <v>2037</v>
       </c>
       <c r="B728" t="s">
-        <v>1819</v>
+        <v>2038</v>
       </c>
       <c r="C728" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D728" t="s">
-        <v>1820</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1821</v>
+        <v>2039</v>
       </c>
       <c r="B729" t="s">
-        <v>1822</v>
+        <v>2040</v>
       </c>
       <c r="C729" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D729" t="s">
-        <v>1823</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1824</v>
+        <v>2591</v>
       </c>
       <c r="B730" t="s">
-        <v>1825</v>
+        <v>2592</v>
       </c>
       <c r="C730" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D730" t="s">
-        <v>1826</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1827</v>
+        <v>2042</v>
       </c>
       <c r="B731" t="s">
-        <v>1828</v>
+        <v>2043</v>
       </c>
       <c r="C731" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D731" t="s">
-        <v>1829</v>
+        <v>21</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1830</v>
+        <v>2044</v>
       </c>
       <c r="B732" t="s">
-        <v>1831</v>
+        <v>2045</v>
       </c>
       <c r="C732" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D732" t="s">
-        <v>1832</v>
+        <v>21</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1833</v>
+        <v>2046</v>
       </c>
       <c r="B733" t="s">
-        <v>1834</v>
+        <v>2047</v>
       </c>
       <c r="C733" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D733" t="s">
-        <v>1835</v>
+        <v>21</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1836</v>
+        <v>2048</v>
       </c>
       <c r="B734" t="s">
-        <v>1837</v>
+        <v>2049</v>
       </c>
       <c r="C734" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D734" t="s">
-        <v>1838</v>
+        <v>21</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1839</v>
+        <v>2052</v>
       </c>
       <c r="B735" t="s">
-        <v>1840</v>
+        <v>2053</v>
       </c>
       <c r="C735" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D735" t="s">
-        <v>1841</v>
+        <v>21</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1842</v>
+        <v>2054</v>
       </c>
       <c r="B736" t="s">
-        <v>1843</v>
+        <v>2055</v>
       </c>
       <c r="C736" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D736" t="s">
-        <v>1844</v>
+        <v>21</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1845</v>
+        <v>1052</v>
       </c>
       <c r="B737" t="s">
-        <v>1846</v>
+        <v>1053</v>
       </c>
       <c r="C737" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D737" t="s">
-        <v>1847</v>
+        <v>21</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1848</v>
+        <v>1056</v>
       </c>
       <c r="B738" t="s">
-        <v>1849</v>
+        <v>1057</v>
       </c>
       <c r="C738" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D738" t="s">
-        <v>1850</v>
+        <v>21</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>1851</v>
+        <v>2058</v>
       </c>
       <c r="B739" t="s">
-        <v>1852</v>
+        <v>2059</v>
       </c>
       <c r="C739" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D739" t="s">
-        <v>1853</v>
+        <v>21</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1854</v>
+        <v>1080</v>
       </c>
       <c r="B740" t="s">
-        <v>1855</v>
+        <v>1081</v>
       </c>
       <c r="C740" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D740" t="s">
-        <v>1856</v>
+        <v>41</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1857</v>
+        <v>2060</v>
       </c>
       <c r="B741" t="s">
-        <v>1858</v>
+        <v>2061</v>
       </c>
       <c r="C741" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D741" t="s">
-        <v>1859</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1860</v>
+        <v>2071</v>
       </c>
       <c r="B742" t="s">
-        <v>1861</v>
+        <v>2072</v>
       </c>
       <c r="C742" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D742" t="s">
-        <v>1862</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1863</v>
+        <v>50</v>
       </c>
       <c r="B743" t="s">
-        <v>1864</v>
+        <v>51</v>
       </c>
       <c r="C743" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D743" t="s">
-        <v>1865</v>
+        <v>52</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1866</v>
+        <v>2081</v>
       </c>
       <c r="B744" t="s">
-        <v>1867</v>
+        <v>2082</v>
       </c>
       <c r="C744" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D744" t="s">
-        <v>1868</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1869</v>
+        <v>1100</v>
       </c>
       <c r="B745" t="s">
-        <v>1870</v>
+        <v>1101</v>
       </c>
       <c r="C745" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D745" t="s">
-        <v>1871</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1872</v>
+        <v>2594</v>
       </c>
       <c r="B746" t="s">
-        <v>1873</v>
+        <v>2595</v>
       </c>
       <c r="C746" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D746" t="s">
-        <v>1874</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1875</v>
+        <v>2092</v>
       </c>
       <c r="B747" t="s">
-        <v>1876</v>
+        <v>2093</v>
       </c>
       <c r="C747" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D747" t="s">
-        <v>1877</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1878</v>
+        <v>2095</v>
       </c>
       <c r="B748" t="s">
-        <v>1879</v>
+        <v>2096</v>
       </c>
       <c r="C748" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D748" t="s">
-        <v>1880</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1881</v>
+        <v>1102</v>
       </c>
       <c r="B749" t="s">
-        <v>1882</v>
+        <v>1103</v>
       </c>
       <c r="C749" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D749" t="s">
-        <v>1883</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1884</v>
+        <v>1105</v>
       </c>
       <c r="B750" t="s">
-        <v>1885</v>
+        <v>1106</v>
       </c>
       <c r="C750" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D750" t="s">
-        <v>1886</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1887</v>
+        <v>55</v>
       </c>
       <c r="B751" t="s">
-        <v>1888</v>
+        <v>56</v>
       </c>
       <c r="C751" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D751" t="s">
-        <v>1889</v>
+        <v>57</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>1890</v>
+        <v>2098</v>
       </c>
       <c r="B752" t="s">
-        <v>1891</v>
+        <v>2099</v>
       </c>
       <c r="C752" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D752" t="s">
-        <v>1892</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>1893</v>
+        <v>2101</v>
       </c>
       <c r="B753" t="s">
-        <v>1894</v>
+        <v>2102</v>
       </c>
       <c r="C753" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D753" t="s">
-        <v>1895</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1896</v>
+        <v>1112</v>
       </c>
       <c r="B754" t="s">
-        <v>1897</v>
+        <v>1113</v>
       </c>
       <c r="C754" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D754" t="s">
-        <v>1898</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1899</v>
+        <v>1114</v>
       </c>
       <c r="B755" t="s">
-        <v>1900</v>
+        <v>1115</v>
       </c>
       <c r="C755" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D755" t="s">
-        <v>1901</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1902</v>
+        <v>67</v>
       </c>
       <c r="B756" t="s">
-        <v>1903</v>
+        <v>68</v>
       </c>
       <c r="C756" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D756" t="s">
-        <v>1904</v>
+        <v>69</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1905</v>
+        <v>2107</v>
       </c>
       <c r="B757" t="s">
-        <v>1906</v>
+        <v>2108</v>
       </c>
       <c r="C757" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D757" t="s">
-        <v>1907</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>1908</v>
+        <v>1119</v>
       </c>
       <c r="B758" t="s">
-        <v>1909</v>
+        <v>1120</v>
       </c>
       <c r="C758" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D758" t="s">
-        <v>1910</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1911</v>
+        <v>2596</v>
       </c>
       <c r="B759" t="s">
-        <v>1912</v>
+        <v>2597</v>
       </c>
       <c r="C759" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D759" t="s">
-        <v>1913</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1914</v>
+        <v>2598</v>
       </c>
       <c r="B760" t="s">
-        <v>1915</v>
+        <v>2599</v>
       </c>
       <c r="C760" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D760" t="s">
-        <v>1916</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1917</v>
+        <v>1134</v>
       </c>
       <c r="B761" t="s">
-        <v>1918</v>
+        <v>1135</v>
       </c>
       <c r="C761" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D761" t="s">
-        <v>1919</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1920</v>
+        <v>2115</v>
       </c>
       <c r="B762" t="s">
-        <v>1921</v>
+        <v>2116</v>
       </c>
       <c r="C762" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D762" t="s">
-        <v>1922</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>1923</v>
+        <v>2118</v>
       </c>
       <c r="B763" t="s">
-        <v>1924</v>
+        <v>2119</v>
       </c>
       <c r="C763" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D763" t="s">
-        <v>1925</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>1926</v>
+        <v>84</v>
       </c>
       <c r="B764" t="s">
-        <v>1927</v>
+        <v>85</v>
       </c>
       <c r="C764" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D764" t="s">
-        <v>1928</v>
+        <v>86</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>1929</v>
+        <v>2121</v>
       </c>
       <c r="B765" t="s">
-        <v>1930</v>
+        <v>2122</v>
       </c>
       <c r="C765" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D765" t="s">
-        <v>1931</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>1932</v>
+        <v>2137</v>
       </c>
       <c r="B766" t="s">
-        <v>1933</v>
+        <v>2138</v>
       </c>
       <c r="C766" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D766" t="s">
-        <v>1934</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>1935</v>
+        <v>2139</v>
       </c>
       <c r="B767" t="s">
-        <v>1936</v>
+        <v>2140</v>
       </c>
       <c r="C767" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D767" t="s">
-        <v>1937</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>1938</v>
+        <v>2601</v>
       </c>
       <c r="B768" t="s">
-        <v>1939</v>
+        <v>2602</v>
       </c>
       <c r="C768" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D768" t="s">
-        <v>1940</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>1941</v>
+        <v>2144</v>
       </c>
       <c r="B769" t="s">
-        <v>1942</v>
+        <v>2145</v>
       </c>
       <c r="C769" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D769" t="s">
-        <v>1943</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>1944</v>
+        <v>2604</v>
       </c>
       <c r="B770" t="s">
-        <v>1945</v>
+        <v>2605</v>
       </c>
       <c r="C770" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D770" t="s">
-        <v>1946</v>
+        <v>103</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>1947</v>
+        <v>1190</v>
       </c>
       <c r="B771" t="s">
-        <v>1948</v>
+        <v>1191</v>
       </c>
       <c r="C771" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D771" t="s">
-        <v>1949</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>1950</v>
+        <v>1194</v>
       </c>
       <c r="B772" t="s">
-        <v>1951</v>
+        <v>1195</v>
       </c>
       <c r="C772" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D772" t="s">
-        <v>1952</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>1953</v>
+        <v>1197</v>
       </c>
       <c r="B773" t="s">
-        <v>1954</v>
+        <v>1198</v>
       </c>
       <c r="C773" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D773" t="s">
-        <v>1955</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>1956</v>
+        <v>2606</v>
       </c>
       <c r="B774" t="s">
-        <v>1957</v>
+        <v>2607</v>
       </c>
       <c r="C774" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D774" t="s">
-        <v>1958</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>1959</v>
+        <v>2608</v>
       </c>
       <c r="B775" t="s">
-        <v>1960</v>
+        <v>2609</v>
       </c>
       <c r="C775" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D775" t="s">
-        <v>1961</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1962</v>
+        <v>2147</v>
       </c>
       <c r="B776" t="s">
-        <v>1963</v>
+        <v>2148</v>
       </c>
       <c r="C776" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D776" t="s">
-        <v>1964</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>1965</v>
+        <v>2149</v>
       </c>
       <c r="B777" t="s">
-        <v>1966</v>
+        <v>2150</v>
       </c>
       <c r="C777" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D777" t="s">
-        <v>1967</v>
+        <v>106</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>1968</v>
+        <v>2156</v>
       </c>
       <c r="B778" t="s">
-        <v>1969</v>
+        <v>2157</v>
       </c>
       <c r="C778" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D778" t="s">
-        <v>1970</v>
+        <v>109</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1971</v>
+        <v>1218</v>
       </c>
       <c r="B779" t="s">
-        <v>1972</v>
+        <v>1219</v>
       </c>
       <c r="C779" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D779" t="s">
-        <v>1973</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1974</v>
+        <v>2169</v>
       </c>
       <c r="B780" t="s">
-        <v>1975</v>
+        <v>2170</v>
       </c>
       <c r="C780" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D780" t="s">
-        <v>1976</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1977</v>
+        <v>2171</v>
       </c>
       <c r="B781" t="s">
-        <v>1978</v>
+        <v>2172</v>
       </c>
       <c r="C781" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D781" t="s">
-        <v>1979</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1980</v>
+        <v>113</v>
       </c>
       <c r="B782" t="s">
-        <v>1981</v>
+        <v>114</v>
       </c>
       <c r="C782" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D782" t="s">
-        <v>1982</v>
+        <v>115</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1983</v>
+        <v>1234</v>
       </c>
       <c r="B783" t="s">
-        <v>1984</v>
+        <v>1235</v>
       </c>
       <c r="C783" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D783" t="s">
-        <v>1967</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>1985</v>
+        <v>2611</v>
       </c>
       <c r="B784" t="s">
-        <v>1986</v>
+        <v>2612</v>
       </c>
       <c r="C784" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D784" t="s">
-        <v>1987</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1988</v>
+        <v>134</v>
       </c>
       <c r="B785" t="s">
-        <v>1989</v>
+        <v>135</v>
       </c>
       <c r="C785" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D785" t="s">
-        <v>1990</v>
+        <v>136</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>1991</v>
+        <v>2614</v>
       </c>
       <c r="B786" t="s">
-        <v>1992</v>
+        <v>2615</v>
       </c>
       <c r="C786" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D786" t="s">
-        <v>1993</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1994</v>
+        <v>2183</v>
       </c>
       <c r="B787" t="s">
-        <v>1995</v>
+        <v>2184</v>
       </c>
       <c r="C787" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D787" t="s">
-        <v>1996</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1997</v>
+        <v>2194</v>
       </c>
       <c r="B788" t="s">
-        <v>1998</v>
+        <v>2195</v>
       </c>
       <c r="C788" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D788" t="s">
-        <v>1999</v>
+        <v>156</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>2000</v>
+        <v>2198</v>
       </c>
       <c r="B789" t="s">
-        <v>2001</v>
+        <v>2199</v>
       </c>
       <c r="C789" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D789" t="s">
-        <v>2002</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>2003</v>
+        <v>2617</v>
       </c>
       <c r="B790" t="s">
-        <v>2004</v>
+        <v>2618</v>
       </c>
       <c r="C790" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D790" t="s">
-        <v>2005</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>2006</v>
+        <v>2201</v>
       </c>
       <c r="B791" t="s">
-        <v>2007</v>
+        <v>2202</v>
       </c>
       <c r="C791" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D791" t="s">
-        <v>2008</v>
+        <v>168</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>2009</v>
+        <v>2203</v>
       </c>
       <c r="B792" t="s">
-        <v>2010</v>
+        <v>2204</v>
       </c>
       <c r="C792" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D792" t="s">
-        <v>2011</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B793" t="s">
-        <v>2013</v>
+        <v>2206</v>
       </c>
       <c r="C793" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D793" t="s">
-        <v>2014</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>2015</v>
+        <v>181</v>
       </c>
       <c r="B794" t="s">
-        <v>2016</v>
+        <v>182</v>
       </c>
       <c r="C794" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D794" t="s">
-        <v>2017</v>
+        <v>183</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>2018</v>
+        <v>2223</v>
       </c>
       <c r="B795" t="s">
-        <v>2019</v>
+        <v>2224</v>
       </c>
       <c r="C795" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D795" t="s">
-        <v>2020</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>2021</v>
+        <v>2225</v>
       </c>
       <c r="B796" t="s">
-        <v>2022</v>
+        <v>2226</v>
       </c>
       <c r="C796" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D796" t="s">
-        <v>2023</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>2024</v>
+        <v>2231</v>
       </c>
       <c r="B797" t="s">
-        <v>2025</v>
+        <v>2232</v>
       </c>
       <c r="C797" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D797" t="s">
-        <v>2026</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>2027</v>
+        <v>2235</v>
       </c>
       <c r="B798" t="s">
-        <v>2028</v>
+        <v>2236</v>
       </c>
       <c r="C798" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D798" t="s">
-        <v>2029</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>998</v>
+        <v>2255</v>
       </c>
       <c r="B799" t="s">
-        <v>999</v>
+        <v>2256</v>
       </c>
       <c r="C799" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D799" t="s">
-        <v>1001</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1005</v>
+        <v>2265</v>
       </c>
       <c r="B800" t="s">
-        <v>1006</v>
+        <v>2266</v>
       </c>
       <c r="C800" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D800" t="s">
-        <v>1007</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>2030</v>
+        <v>1342</v>
       </c>
       <c r="B801" t="s">
-        <v>2031</v>
+        <v>1343</v>
       </c>
       <c r="C801" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D801" t="s">
-        <v>2032</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1014</v>
+        <v>2274</v>
       </c>
       <c r="B802" t="s">
-        <v>1015</v>
+        <v>2275</v>
       </c>
       <c r="C802" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D802" t="s">
-        <v>1013</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>2033</v>
+        <v>2277</v>
       </c>
       <c r="B803" t="s">
-        <v>2034</v>
+        <v>2278</v>
       </c>
       <c r="C803" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D803" t="s">
-        <v>1013</v>
+        <v>224</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1016</v>
+        <v>225</v>
       </c>
       <c r="B804" t="s">
-        <v>1017</v>
+        <v>226</v>
       </c>
       <c r="C804" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D804" t="s">
-        <v>1018</v>
+        <v>227</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>13</v>
+        <v>2620</v>
       </c>
       <c r="B805" t="s">
-        <v>14</v>
+        <v>2621</v>
       </c>
       <c r="C805" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D805" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>16</v>
+        <v>2281</v>
       </c>
       <c r="B806" t="s">
-        <v>17</v>
+        <v>2282</v>
       </c>
       <c r="C806" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D806" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>2035</v>
+        <v>2288</v>
       </c>
       <c r="B807" t="s">
-        <v>2036</v>
+        <v>2289</v>
       </c>
       <c r="C807" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D807" t="s">
-        <v>1026</v>
+        <v>243</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>2037</v>
+        <v>252</v>
       </c>
       <c r="B808" t="s">
-        <v>2038</v>
+        <v>253</v>
       </c>
       <c r="C808" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D808" t="s">
-        <v>1026</v>
+        <v>249</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>2039</v>
+        <v>267</v>
       </c>
       <c r="B809" t="s">
-        <v>2040</v>
+        <v>268</v>
       </c>
       <c r="C809" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D809" t="s">
-        <v>2041</v>
+        <v>269</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1034</v>
+        <v>2296</v>
       </c>
       <c r="B810" t="s">
-        <v>1035</v>
+        <v>2297</v>
       </c>
       <c r="C810" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D810" t="s">
-        <v>1033</v>
+        <v>269</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>2042</v>
+        <v>2302</v>
       </c>
       <c r="B811" t="s">
-        <v>2043</v>
+        <v>2303</v>
       </c>
       <c r="C811" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D811" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1036</v>
+        <v>2312</v>
       </c>
       <c r="B812" t="s">
-        <v>1037</v>
+        <v>2313</v>
       </c>
       <c r="C812" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D812" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1040</v>
+        <v>2316</v>
       </c>
       <c r="B813" t="s">
-        <v>1041</v>
+        <v>2317</v>
       </c>
       <c r="C813" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D813" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1042</v>
+        <v>2326</v>
       </c>
       <c r="B814" t="s">
-        <v>1043</v>
+        <v>2327</v>
       </c>
       <c r="C814" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D814" t="s">
-        <v>21</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B815" t="s">
-        <v>2045</v>
+        <v>287</v>
       </c>
       <c r="C815" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D815" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>2046</v>
+        <v>289</v>
       </c>
       <c r="B816" t="s">
-        <v>2047</v>
+        <v>290</v>
       </c>
       <c r="C816" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D816" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="B817" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="C817" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D817" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B818" t="s">
-        <v>2049</v>
+        <v>294</v>
       </c>
       <c r="C818" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D818" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>30</v>
-      </c>
-      <c r="B819" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="C819" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D819" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>2050</v>
+        <v>298</v>
       </c>
       <c r="B820" t="s">
-        <v>2051</v>
+        <v>299</v>
       </c>
       <c r="C820" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D820" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1050</v>
+        <v>303</v>
       </c>
       <c r="B821" t="s">
-        <v>1051</v>
+        <v>304</v>
       </c>
       <c r="C821" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D821" t="s">
-        <v>21</v>
+        <v>305</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>2052</v>
+        <v>306</v>
       </c>
       <c r="B822" t="s">
-        <v>2053</v>
+        <v>307</v>
       </c>
       <c r="C822" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D822" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B823" t="s">
-        <v>2055</v>
+        <v>309</v>
       </c>
       <c r="C823" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D823" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>2056</v>
-      </c>
-      <c r="B824" t="s">
-        <v>2057</v>
+        <v>2457</v>
       </c>
       <c r="C824" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D824" t="s">
-        <v>21</v>
+        <v>361</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B825" t="s">
-        <v>2059</v>
+        <v>2622</v>
       </c>
       <c r="C825" t="s">
-        <v>1801</v>
+        <v>1000</v>
       </c>
       <c r="D825" t="s">
-        <v>21</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>34</v>
+        <v>1799</v>
       </c>
       <c r="B826" t="s">
-        <v>35</v>
+        <v>1800</v>
       </c>
       <c r="C826" t="s">
         <v>1801</v>
       </c>
       <c r="D826" t="s">
-        <v>21</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1069</v>
+        <v>1803</v>
       </c>
       <c r="B827" t="s">
-        <v>1070</v>
+        <v>1804</v>
       </c>
       <c r="C827" t="s">
         <v>1801</v>
       </c>
       <c r="D827" t="s">
-        <v>1071</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1072</v>
+        <v>1806</v>
       </c>
       <c r="B828" t="s">
-        <v>1073</v>
+        <v>1807</v>
       </c>
       <c r="C828" t="s">
         <v>1801</v>
       </c>
       <c r="D828" t="s">
-        <v>1074</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1075</v>
+        <v>1809</v>
       </c>
       <c r="B829" t="s">
-        <v>1076</v>
+        <v>1810</v>
       </c>
       <c r="C829" t="s">
         <v>1801</v>
       </c>
       <c r="D829" t="s">
-        <v>1074</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1077</v>
+        <v>1812</v>
       </c>
       <c r="B830" t="s">
-        <v>1078</v>
+        <v>1813</v>
       </c>
       <c r="C830" t="s">
         <v>1801</v>
       </c>
       <c r="D830" t="s">
-        <v>1079</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>2060</v>
+        <v>1815</v>
       </c>
       <c r="B831" t="s">
-        <v>2061</v>
+        <v>1816</v>
       </c>
       <c r="C831" t="s">
         <v>1801</v>
       </c>
       <c r="D831" t="s">
-        <v>1087</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>2062</v>
+        <v>1818</v>
       </c>
       <c r="B832" t="s">
-        <v>2063</v>
+        <v>1819</v>
       </c>
       <c r="C832" t="s">
         <v>1801</v>
       </c>
       <c r="D832" t="s">
-        <v>2064</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>2065</v>
+        <v>1821</v>
       </c>
       <c r="B833" t="s">
-        <v>2066</v>
+        <v>1822</v>
       </c>
       <c r="C833" t="s">
         <v>1801</v>
       </c>
       <c r="D833" t="s">
-        <v>2067</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>2068</v>
+        <v>1824</v>
       </c>
       <c r="B834" t="s">
-        <v>2069</v>
+        <v>1825</v>
       </c>
       <c r="C834" t="s">
         <v>1801</v>
       </c>
       <c r="D834" t="s">
-        <v>2070</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>2071</v>
+        <v>1827</v>
       </c>
       <c r="B835" t="s">
-        <v>2072</v>
+        <v>1828</v>
       </c>
       <c r="C835" t="s">
         <v>1801</v>
       </c>
       <c r="D835" t="s">
-        <v>2073</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>2074</v>
+        <v>1830</v>
       </c>
       <c r="B836" t="s">
-        <v>2075</v>
+        <v>1831</v>
       </c>
       <c r="C836" t="s">
         <v>1801</v>
       </c>
       <c r="D836" t="s">
-        <v>2073</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1088</v>
+        <v>1833</v>
       </c>
       <c r="B837" t="s">
-        <v>1089</v>
+        <v>1834</v>
       </c>
       <c r="C837" t="s">
         <v>1801</v>
       </c>
       <c r="D837" t="s">
-        <v>47</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>2076</v>
+        <v>1836</v>
       </c>
       <c r="B838" t="s">
-        <v>2077</v>
+        <v>1837</v>
       </c>
       <c r="C838" t="s">
         <v>1801</v>
       </c>
       <c r="D838" t="s">
-        <v>2078</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>2079</v>
+        <v>1839</v>
       </c>
       <c r="B839" t="s">
-        <v>2080</v>
+        <v>1840</v>
       </c>
       <c r="C839" t="s">
         <v>1801</v>
       </c>
       <c r="D839" t="s">
-        <v>2078</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>1090</v>
+        <v>1842</v>
       </c>
       <c r="B840" t="s">
-        <v>1091</v>
+        <v>1843</v>
       </c>
       <c r="C840" t="s">
         <v>1801</v>
       </c>
       <c r="D840" t="s">
-        <v>52</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>1094</v>
+        <v>1845</v>
       </c>
       <c r="B841" t="s">
-        <v>1095</v>
+        <v>1846</v>
       </c>
       <c r="C841" t="s">
         <v>1801</v>
       </c>
       <c r="D841" t="s">
-        <v>1096</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>2081</v>
+        <v>1848</v>
       </c>
       <c r="B842" t="s">
-        <v>2082</v>
+        <v>1849</v>
       </c>
       <c r="C842" t="s">
         <v>1801</v>
       </c>
       <c r="D842" t="s">
-        <v>1096</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1097</v>
+        <v>1851</v>
       </c>
       <c r="B843" t="s">
-        <v>1098</v>
+        <v>1852</v>
       </c>
       <c r="C843" t="s">
         <v>1801</v>
       </c>
       <c r="D843" t="s">
-        <v>1099</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>2083</v>
+        <v>1854</v>
       </c>
       <c r="B844" t="s">
-        <v>2084</v>
+        <v>1855</v>
       </c>
       <c r="C844" t="s">
         <v>1801</v>
       </c>
       <c r="D844" t="s">
-        <v>2085</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>2086</v>
+        <v>1857</v>
       </c>
       <c r="B845" t="s">
-        <v>2087</v>
+        <v>1858</v>
       </c>
       <c r="C845" t="s">
         <v>1801</v>
       </c>
       <c r="D845" t="s">
-        <v>2088</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>2089</v>
+        <v>1860</v>
       </c>
       <c r="B846" t="s">
-        <v>2090</v>
+        <v>1861</v>
       </c>
       <c r="C846" t="s">
         <v>1801</v>
       </c>
       <c r="D846" t="s">
-        <v>2091</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>2092</v>
+        <v>1863</v>
       </c>
       <c r="B847" t="s">
-        <v>2093</v>
+        <v>1864</v>
       </c>
       <c r="C847" t="s">
         <v>1801</v>
       </c>
       <c r="D847" t="s">
-        <v>2094</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>2095</v>
+        <v>1866</v>
       </c>
       <c r="B848" t="s">
-        <v>2096</v>
+        <v>1867</v>
       </c>
       <c r="C848" t="s">
         <v>1801</v>
       </c>
       <c r="D848" t="s">
-        <v>2097</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>1102</v>
+        <v>1869</v>
       </c>
       <c r="B849" t="s">
-        <v>1103</v>
+        <v>1870</v>
       </c>
       <c r="C849" t="s">
         <v>1801</v>
       </c>
       <c r="D849" t="s">
-        <v>1104</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>2098</v>
+        <v>1872</v>
       </c>
       <c r="B850" t="s">
-        <v>2099</v>
+        <v>1873</v>
       </c>
       <c r="C850" t="s">
         <v>1801</v>
       </c>
       <c r="D850" t="s">
-        <v>2100</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>2101</v>
+        <v>1875</v>
       </c>
       <c r="B851" t="s">
-        <v>2102</v>
+        <v>1876</v>
       </c>
       <c r="C851" t="s">
         <v>1801</v>
       </c>
       <c r="D851" t="s">
-        <v>2103</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>1107</v>
+        <v>1878</v>
       </c>
       <c r="B852" t="s">
-        <v>1108</v>
+        <v>1879</v>
       </c>
       <c r="C852" t="s">
         <v>1801</v>
       </c>
       <c r="D852" t="s">
-        <v>66</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>1109</v>
+        <v>1881</v>
       </c>
       <c r="B853" t="s">
-        <v>1110</v>
+        <v>1882</v>
       </c>
       <c r="C853" t="s">
         <v>1801</v>
       </c>
       <c r="D853" t="s">
-        <v>1111</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>1112</v>
+        <v>1884</v>
       </c>
       <c r="B854" t="s">
-        <v>1113</v>
+        <v>1885</v>
       </c>
       <c r="C854" t="s">
         <v>1801</v>
       </c>
       <c r="D854" t="s">
-        <v>1111</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>1114</v>
+        <v>1887</v>
       </c>
       <c r="B855" t="s">
-        <v>1115</v>
+        <v>1888</v>
       </c>
       <c r="C855" t="s">
         <v>1801</v>
       </c>
       <c r="D855" t="s">
-        <v>1111</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>2104</v>
+        <v>1890</v>
       </c>
       <c r="B856" t="s">
-        <v>2105</v>
+        <v>1891</v>
       </c>
       <c r="C856" t="s">
         <v>1801</v>
       </c>
       <c r="D856" t="s">
-        <v>2106</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>2107</v>
+        <v>1893</v>
       </c>
       <c r="B857" t="s">
-        <v>2108</v>
+        <v>1894</v>
       </c>
       <c r="C857" t="s">
         <v>1801</v>
       </c>
       <c r="D857" t="s">
-        <v>2106</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>2109</v>
+        <v>1896</v>
       </c>
       <c r="B858" t="s">
-        <v>2110</v>
+        <v>1897</v>
       </c>
       <c r="C858" t="s">
         <v>1801</v>
       </c>
       <c r="D858" t="s">
-        <v>2111</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>2112</v>
+        <v>1899</v>
       </c>
       <c r="B859" t="s">
-        <v>2113</v>
+        <v>1900</v>
       </c>
       <c r="C859" t="s">
         <v>1801</v>
       </c>
       <c r="D859" t="s">
-        <v>2114</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>73</v>
+        <v>1902</v>
       </c>
       <c r="B860" t="s">
-        <v>74</v>
+        <v>1903</v>
       </c>
       <c r="C860" t="s">
         <v>1801</v>
       </c>
       <c r="D860" t="s">
-        <v>72</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>75</v>
+        <v>1905</v>
       </c>
       <c r="B861" t="s">
-        <v>76</v>
+        <v>1906</v>
       </c>
       <c r="C861" t="s">
         <v>1801</v>
       </c>
       <c r="D861" t="s">
-        <v>77</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1137</v>
+        <v>1908</v>
       </c>
       <c r="B862" t="s">
-        <v>1138</v>
+        <v>1909</v>
       </c>
       <c r="C862" t="s">
         <v>1801</v>
       </c>
       <c r="D862" t="s">
-        <v>1139</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>2115</v>
+        <v>1911</v>
       </c>
       <c r="B863" t="s">
-        <v>2116</v>
+        <v>1912</v>
       </c>
       <c r="C863" t="s">
         <v>1801</v>
       </c>
       <c r="D863" t="s">
-        <v>2117</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>2118</v>
+        <v>1914</v>
       </c>
       <c r="B864" t="s">
-        <v>2119</v>
+        <v>1915</v>
       </c>
       <c r="C864" t="s">
         <v>1801</v>
       </c>
       <c r="D864" t="s">
-        <v>2120</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>84</v>
+        <v>1917</v>
       </c>
       <c r="B865" t="s">
-        <v>85</v>
+        <v>1918</v>
       </c>
       <c r="C865" t="s">
         <v>1801</v>
       </c>
       <c r="D865" t="s">
-        <v>86</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>2121</v>
+        <v>1920</v>
       </c>
       <c r="B866" t="s">
-        <v>2122</v>
+        <v>1921</v>
       </c>
       <c r="C866" t="s">
         <v>1801</v>
       </c>
       <c r="D866" t="s">
-        <v>2123</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>2124</v>
+        <v>1923</v>
       </c>
       <c r="B867" t="s">
-        <v>2125</v>
+        <v>1924</v>
       </c>
       <c r="C867" t="s">
         <v>1801</v>
       </c>
       <c r="D867" t="s">
-        <v>2126</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>2127</v>
+        <v>1926</v>
       </c>
       <c r="B868" t="s">
-        <v>2128</v>
+        <v>1927</v>
       </c>
       <c r="C868" t="s">
         <v>1801</v>
       </c>
       <c r="D868" t="s">
-        <v>2129</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>2130</v>
+        <v>1929</v>
       </c>
       <c r="B869" t="s">
-        <v>2131</v>
+        <v>1930</v>
       </c>
       <c r="C869" t="s">
         <v>1801</v>
       </c>
       <c r="D869" t="s">
-        <v>2129</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1146</v>
+        <v>1932</v>
       </c>
       <c r="B870" t="s">
-        <v>1147</v>
+        <v>1933</v>
       </c>
       <c r="C870" t="s">
         <v>1801</v>
       </c>
       <c r="D870" t="s">
-        <v>1148</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>2132</v>
+        <v>1935</v>
       </c>
       <c r="B871" t="s">
-        <v>2133</v>
+        <v>1936</v>
       </c>
       <c r="C871" t="s">
         <v>1801</v>
       </c>
       <c r="D871" t="s">
-        <v>2134</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>1155</v>
+        <v>1938</v>
       </c>
       <c r="B872" t="s">
-        <v>1156</v>
+        <v>1939</v>
       </c>
       <c r="C872" t="s">
         <v>1801</v>
       </c>
       <c r="D872" t="s">
-        <v>1157</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>2135</v>
+        <v>1941</v>
       </c>
       <c r="B873" t="s">
-        <v>2136</v>
+        <v>1942</v>
       </c>
       <c r="C873" t="s">
         <v>1801</v>
       </c>
       <c r="D873" t="s">
-        <v>1160</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>1161</v>
+        <v>1944</v>
       </c>
       <c r="B874" t="s">
-        <v>1162</v>
+        <v>1945</v>
       </c>
       <c r="C874" t="s">
         <v>1801</v>
       </c>
       <c r="D874" t="s">
-        <v>1163</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>2137</v>
+        <v>1947</v>
       </c>
       <c r="B875" t="s">
-        <v>2138</v>
+        <v>1948</v>
       </c>
       <c r="C875" t="s">
         <v>1801</v>
       </c>
       <c r="D875" t="s">
-        <v>1166</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>2139</v>
+        <v>1950</v>
       </c>
       <c r="B876" t="s">
-        <v>2140</v>
+        <v>1951</v>
       </c>
       <c r="C876" t="s">
         <v>1801</v>
       </c>
       <c r="D876" t="s">
-        <v>1166</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>92</v>
+        <v>1953</v>
       </c>
       <c r="B877" t="s">
-        <v>93</v>
+        <v>1954</v>
       </c>
       <c r="C877" t="s">
         <v>1801</v>
       </c>
       <c r="D877" t="s">
-        <v>94</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>2141</v>
+        <v>1956</v>
       </c>
       <c r="B878" t="s">
-        <v>2142</v>
+        <v>1957</v>
       </c>
       <c r="C878" t="s">
         <v>1801</v>
       </c>
       <c r="D878" t="s">
-        <v>2143</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1167</v>
+        <v>1959</v>
       </c>
       <c r="B879" t="s">
-        <v>1168</v>
+        <v>1960</v>
       </c>
       <c r="C879" t="s">
         <v>1801</v>
       </c>
       <c r="D879" t="s">
-        <v>1169</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1170</v>
+        <v>1962</v>
       </c>
       <c r="B880" t="s">
-        <v>1171</v>
+        <v>1963</v>
       </c>
       <c r="C880" t="s">
         <v>1801</v>
       </c>
       <c r="D880" t="s">
-        <v>97</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>2144</v>
+        <v>1965</v>
       </c>
       <c r="B881" t="s">
-        <v>2145</v>
+        <v>1966</v>
       </c>
       <c r="C881" t="s">
         <v>1801</v>
       </c>
       <c r="D881" t="s">
-        <v>2146</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>1179</v>
+        <v>1968</v>
       </c>
       <c r="B882" t="s">
-        <v>1180</v>
+        <v>1969</v>
       </c>
       <c r="C882" t="s">
         <v>1801</v>
       </c>
       <c r="D882" t="s">
-        <v>1178</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>1190</v>
+        <v>1971</v>
       </c>
       <c r="B883" t="s">
-        <v>1191</v>
+        <v>1972</v>
       </c>
       <c r="C883" t="s">
         <v>1801</v>
       </c>
       <c r="D883" t="s">
-        <v>1189</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>1197</v>
+        <v>1974</v>
       </c>
       <c r="B884" t="s">
-        <v>1198</v>
+        <v>1975</v>
       </c>
       <c r="C884" t="s">
         <v>1801</v>
       </c>
       <c r="D884" t="s">
-        <v>1199</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>2147</v>
+        <v>1977</v>
       </c>
       <c r="B885" t="s">
-        <v>2148</v>
+        <v>1978</v>
       </c>
       <c r="C885" t="s">
         <v>1801</v>
       </c>
       <c r="D885" t="s">
-        <v>1208</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>1206</v>
+        <v>1980</v>
       </c>
       <c r="B886" t="s">
-        <v>1207</v>
+        <v>1981</v>
       </c>
       <c r="C886" t="s">
         <v>1801</v>
       </c>
       <c r="D886" t="s">
-        <v>1208</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>1209</v>
+        <v>1983</v>
       </c>
       <c r="B887" t="s">
-        <v>1210</v>
+        <v>1984</v>
       </c>
       <c r="C887" t="s">
         <v>1801</v>
       </c>
       <c r="D887" t="s">
-        <v>1211</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>2149</v>
+        <v>1985</v>
       </c>
       <c r="B888" t="s">
-        <v>2150</v>
+        <v>1986</v>
       </c>
       <c r="C888" t="s">
         <v>1801</v>
       </c>
       <c r="D888" t="s">
-        <v>106</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>104</v>
+        <v>1988</v>
       </c>
       <c r="B889" t="s">
-        <v>105</v>
+        <v>1989</v>
       </c>
       <c r="C889" t="s">
         <v>1801</v>
       </c>
       <c r="D889" t="s">
-        <v>106</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>2151</v>
+        <v>1991</v>
       </c>
       <c r="B890" t="s">
-        <v>2152</v>
+        <v>1992</v>
       </c>
       <c r="C890" t="s">
         <v>1801</v>
       </c>
       <c r="D890" t="s">
-        <v>2153</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>2154</v>
+        <v>1994</v>
       </c>
       <c r="B891" t="s">
-        <v>2155</v>
+        <v>1995</v>
       </c>
       <c r="C891" t="s">
         <v>1801</v>
       </c>
       <c r="D891" t="s">
-        <v>1217</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>2156</v>
+        <v>1997</v>
       </c>
       <c r="B892" t="s">
-        <v>2157</v>
+        <v>1998</v>
       </c>
       <c r="C892" t="s">
         <v>1801</v>
       </c>
       <c r="D892" t="s">
-        <v>109</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>2158</v>
+        <v>2000</v>
       </c>
       <c r="B893" t="s">
-        <v>2159</v>
+        <v>2001</v>
       </c>
       <c r="C893" t="s">
         <v>1801</v>
       </c>
       <c r="D893" t="s">
-        <v>2160</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>2161</v>
+        <v>2003</v>
       </c>
       <c r="B894" t="s">
-        <v>2162</v>
+        <v>2004</v>
       </c>
       <c r="C894" t="s">
         <v>1801</v>
       </c>
       <c r="D894" t="s">
-        <v>2163</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>2164</v>
+        <v>2006</v>
       </c>
       <c r="B895" t="s">
-        <v>2165</v>
+        <v>2007</v>
       </c>
       <c r="C895" t="s">
         <v>1801</v>
       </c>
       <c r="D895" t="s">
-        <v>1220</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1218</v>
+        <v>2009</v>
       </c>
       <c r="B896" t="s">
-        <v>1219</v>
+        <v>2010</v>
       </c>
       <c r="C896" t="s">
         <v>1801</v>
       </c>
       <c r="D896" t="s">
-        <v>1220</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>2166</v>
+        <v>2012</v>
       </c>
       <c r="B897" t="s">
-        <v>2167</v>
+        <v>2013</v>
       </c>
       <c r="C897" t="s">
         <v>1801</v>
       </c>
       <c r="D897" t="s">
-        <v>2168</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>2169</v>
+        <v>2015</v>
       </c>
       <c r="B898" t="s">
-        <v>2170</v>
+        <v>2016</v>
       </c>
       <c r="C898" t="s">
         <v>1801</v>
       </c>
       <c r="D898" t="s">
-        <v>2168</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>2171</v>
+        <v>2018</v>
       </c>
       <c r="B899" t="s">
-        <v>2172</v>
+        <v>2019</v>
       </c>
       <c r="C899" t="s">
         <v>1801</v>
       </c>
       <c r="D899" t="s">
-        <v>2173</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>2174</v>
+        <v>2021</v>
       </c>
       <c r="B900" t="s">
-        <v>2175</v>
+        <v>2022</v>
       </c>
       <c r="C900" t="s">
         <v>1801</v>
       </c>
       <c r="D900" t="s">
-        <v>2176</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>2177</v>
+        <v>2024</v>
       </c>
       <c r="B901" t="s">
-        <v>2178</v>
+        <v>2025</v>
       </c>
       <c r="C901" t="s">
         <v>1801</v>
       </c>
       <c r="D901" t="s">
-        <v>2179</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>1249</v>
+        <v>2027</v>
       </c>
       <c r="B902" t="s">
-        <v>1250</v>
+        <v>2028</v>
       </c>
       <c r="C902" t="s">
         <v>1801</v>
       </c>
       <c r="D902" t="s">
-        <v>1251</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>2180</v>
+        <v>998</v>
       </c>
       <c r="B903" t="s">
-        <v>2181</v>
+        <v>999</v>
       </c>
       <c r="C903" t="s">
         <v>1801</v>
       </c>
       <c r="D903" t="s">
-        <v>2182</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>1252</v>
+        <v>1005</v>
       </c>
       <c r="B904" t="s">
-        <v>1253</v>
+        <v>1006</v>
       </c>
       <c r="C904" t="s">
         <v>1801</v>
       </c>
       <c r="D904" t="s">
-        <v>1254</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>119</v>
+        <v>2030</v>
       </c>
       <c r="B905" t="s">
-        <v>120</v>
+        <v>2031</v>
       </c>
       <c r="C905" t="s">
         <v>1801</v>
       </c>
       <c r="D905" t="s">
-        <v>121</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>1260</v>
+        <v>1014</v>
       </c>
       <c r="B906" t="s">
-        <v>1261</v>
+        <v>1015</v>
       </c>
       <c r="C906" t="s">
         <v>1801</v>
       </c>
       <c r="D906" t="s">
-        <v>1262</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>131</v>
+        <v>2033</v>
       </c>
       <c r="B907" t="s">
-        <v>132</v>
+        <v>2034</v>
       </c>
       <c r="C907" t="s">
         <v>1801</v>
       </c>
       <c r="D907" t="s">
-        <v>133</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>1272</v>
+        <v>1016</v>
       </c>
       <c r="B908" t="s">
-        <v>1273</v>
+        <v>1017</v>
       </c>
       <c r="C908" t="s">
         <v>1801</v>
       </c>
       <c r="D908" t="s">
-        <v>139</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="B909" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="C909" t="s">
         <v>1801</v>
       </c>
       <c r="D909" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>2183</v>
+        <v>16</v>
       </c>
       <c r="B910" t="s">
-        <v>2184</v>
+        <v>17</v>
       </c>
       <c r="C910" t="s">
         <v>1801</v>
       </c>
       <c r="D910" t="s">
-        <v>2185</v>
+        <v>18</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>2186</v>
+        <v>2035</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2036</v>
       </c>
       <c r="C911" t="s">
         <v>1801</v>
       </c>
       <c r="D911" t="s">
-        <v>2187</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>2188</v>
+        <v>2037</v>
       </c>
       <c r="B912" t="s">
-        <v>2189</v>
+        <v>2038</v>
       </c>
       <c r="C912" t="s">
         <v>1801</v>
       </c>
       <c r="D912" t="s">
-        <v>150</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>2190</v>
+        <v>2039</v>
       </c>
       <c r="B913" t="s">
-        <v>2191</v>
+        <v>2040</v>
       </c>
       <c r="C913" t="s">
         <v>1801</v>
       </c>
       <c r="D913" t="s">
-        <v>1282</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>2192</v>
+        <v>1034</v>
       </c>
       <c r="B914" t="s">
-        <v>2193</v>
+        <v>1035</v>
       </c>
       <c r="C914" t="s">
         <v>1801</v>
       </c>
       <c r="D914" t="s">
-        <v>1282</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>154</v>
+        <v>2042</v>
       </c>
       <c r="B915" t="s">
-        <v>155</v>
+        <v>2043</v>
       </c>
       <c r="C915" t="s">
         <v>1801</v>
       </c>
       <c r="D915" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>2194</v>
+        <v>1036</v>
       </c>
       <c r="B916" t="s">
-        <v>2195</v>
+        <v>1037</v>
       </c>
       <c r="C916" t="s">
         <v>1801</v>
       </c>
       <c r="D916" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>1286</v>
+        <v>1040</v>
       </c>
       <c r="B917" t="s">
-        <v>1287</v>
+        <v>1041</v>
       </c>
       <c r="C917" t="s">
         <v>1801</v>
       </c>
       <c r="D917" t="s">
-        <v>1288</v>
+        <v>21</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>163</v>
+        <v>1042</v>
       </c>
       <c r="B918" t="s">
-        <v>164</v>
+        <v>1043</v>
       </c>
       <c r="C918" t="s">
         <v>1801</v>
       </c>
       <c r="D918" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>2196</v>
+        <v>2044</v>
       </c>
       <c r="B919" t="s">
-        <v>2197</v>
+        <v>2045</v>
       </c>
       <c r="C919" t="s">
         <v>1801</v>
       </c>
       <c r="D919" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>2198</v>
+        <v>2046</v>
       </c>
       <c r="B920" t="s">
-        <v>2199</v>
+        <v>2047</v>
       </c>
       <c r="C920" t="s">
         <v>1801</v>
       </c>
       <c r="D920" t="s">
-        <v>2200</v>
+        <v>21</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="B921" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C921" t="s">
         <v>1801</v>
       </c>
       <c r="D921" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>2201</v>
+        <v>2048</v>
       </c>
       <c r="B922" t="s">
-        <v>2202</v>
+        <v>2049</v>
       </c>
       <c r="C922" t="s">
         <v>1801</v>
       </c>
       <c r="D922" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>1300</v>
+        <v>30</v>
       </c>
       <c r="B923" t="s">
-        <v>1301</v>
+        <v>31</v>
       </c>
       <c r="C923" t="s">
         <v>1801</v>
       </c>
       <c r="D923" t="s">
-        <v>1302</v>
+        <v>21</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>1311</v>
+        <v>2050</v>
       </c>
       <c r="B924" t="s">
-        <v>1312</v>
+        <v>2051</v>
       </c>
       <c r="C924" t="s">
         <v>1801</v>
       </c>
       <c r="D924" t="s">
-        <v>1310</v>
+        <v>21</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>2203</v>
+        <v>1050</v>
       </c>
       <c r="B925" t="s">
-        <v>2204</v>
+        <v>1051</v>
       </c>
       <c r="C925" t="s">
         <v>1801</v>
       </c>
       <c r="D925" t="s">
-        <v>2205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>2206</v>
+        <v>2052</v>
+      </c>
+      <c r="B926" t="s">
+        <v>2053</v>
       </c>
       <c r="C926" t="s">
         <v>1801</v>
       </c>
       <c r="D926" t="s">
-        <v>2205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>2207</v>
+        <v>2054</v>
       </c>
       <c r="B927" t="s">
-        <v>2208</v>
+        <v>2055</v>
       </c>
       <c r="C927" t="s">
         <v>1801</v>
       </c>
       <c r="D927" t="s">
-        <v>2205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>2209</v>
+        <v>2056</v>
       </c>
       <c r="B928" t="s">
-        <v>2210</v>
+        <v>2057</v>
       </c>
       <c r="C928" t="s">
         <v>1801</v>
       </c>
       <c r="D928" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>2211</v>
+        <v>2058</v>
       </c>
       <c r="B929" t="s">
-        <v>2212</v>
+        <v>2059</v>
       </c>
       <c r="C929" t="s">
         <v>1801</v>
       </c>
       <c r="D929" t="s">
-        <v>2213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>2214</v>
+        <v>34</v>
       </c>
       <c r="B930" t="s">
-        <v>2215</v>
+        <v>35</v>
       </c>
       <c r="C930" t="s">
         <v>1801</v>
       </c>
       <c r="D930" t="s">
-        <v>2213</v>
+        <v>21</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>2216</v>
+        <v>1069</v>
       </c>
       <c r="B931" t="s">
-        <v>2217</v>
+        <v>1070</v>
       </c>
       <c r="C931" t="s">
         <v>1801</v>
       </c>
       <c r="D931" t="s">
-        <v>192</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>2218</v>
+        <v>1072</v>
       </c>
       <c r="B932" t="s">
-        <v>2219</v>
+        <v>1073</v>
       </c>
       <c r="C932" t="s">
         <v>1801</v>
       </c>
       <c r="D932" t="s">
-        <v>2220</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>2221</v>
+        <v>1075</v>
       </c>
       <c r="B933" t="s">
-        <v>2222</v>
+        <v>1076</v>
       </c>
       <c r="C933" t="s">
         <v>1801</v>
       </c>
       <c r="D933" t="s">
-        <v>2220</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>2223</v>
+        <v>1077</v>
       </c>
       <c r="B934" t="s">
-        <v>2224</v>
+        <v>1078</v>
       </c>
       <c r="C934" t="s">
         <v>1801</v>
       </c>
       <c r="D934" t="s">
-        <v>2220</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>2225</v>
+        <v>2060</v>
       </c>
       <c r="B935" t="s">
-        <v>2226</v>
+        <v>2061</v>
       </c>
       <c r="C935" t="s">
         <v>1801</v>
       </c>
       <c r="D935" t="s">
-        <v>1326</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>2227</v>
+        <v>2062</v>
       </c>
       <c r="B936" t="s">
-        <v>2228</v>
+        <v>2063</v>
       </c>
       <c r="C936" t="s">
         <v>1801</v>
       </c>
       <c r="D936" t="s">
-        <v>1326</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>2229</v>
+        <v>2065</v>
       </c>
       <c r="B937" t="s">
-        <v>2230</v>
+        <v>2066</v>
       </c>
       <c r="C937" t="s">
         <v>1801</v>
       </c>
       <c r="D937" t="s">
-        <v>1326</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>2231</v>
+        <v>2068</v>
       </c>
       <c r="B938" t="s">
-        <v>2232</v>
+        <v>2069</v>
       </c>
       <c r="C938" t="s">
         <v>1801</v>
       </c>
       <c r="D938" t="s">
-        <v>1329</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>2233</v>
+        <v>2071</v>
       </c>
       <c r="B939" t="s">
-        <v>2234</v>
+        <v>2072</v>
       </c>
       <c r="C939" t="s">
         <v>1801</v>
       </c>
       <c r="D939" t="s">
-        <v>1329</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>1327</v>
+        <v>2074</v>
       </c>
       <c r="B940" t="s">
-        <v>1328</v>
+        <v>2075</v>
       </c>
       <c r="C940" t="s">
         <v>1801</v>
       </c>
       <c r="D940" t="s">
-        <v>1329</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>2235</v>
+        <v>1088</v>
       </c>
       <c r="B941" t="s">
-        <v>2236</v>
+        <v>1089</v>
       </c>
       <c r="C941" t="s">
         <v>1801</v>
       </c>
       <c r="D941" t="s">
-        <v>1329</v>
+        <v>47</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>2237</v>
+        <v>2076</v>
       </c>
       <c r="B942" t="s">
-        <v>2238</v>
+        <v>2077</v>
       </c>
       <c r="C942" t="s">
         <v>1801</v>
       </c>
       <c r="D942" t="s">
-        <v>1332</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>2239</v>
+        <v>2079</v>
       </c>
       <c r="B943" t="s">
-        <v>2240</v>
+        <v>2080</v>
       </c>
       <c r="C943" t="s">
         <v>1801</v>
       </c>
       <c r="D943" t="s">
-        <v>1332</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>2241</v>
+        <v>1090</v>
       </c>
       <c r="B944" t="s">
-        <v>2242</v>
+        <v>1091</v>
       </c>
       <c r="C944" t="s">
         <v>1801</v>
       </c>
       <c r="D944" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>2243</v>
+        <v>1094</v>
       </c>
       <c r="B945" t="s">
-        <v>2244</v>
+        <v>1095</v>
       </c>
       <c r="C945" t="s">
         <v>1801</v>
       </c>
       <c r="D945" t="s">
-        <v>197</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>195</v>
+        <v>2081</v>
       </c>
       <c r="B946" t="s">
-        <v>196</v>
+        <v>2082</v>
       </c>
       <c r="C946" t="s">
         <v>1801</v>
       </c>
       <c r="D946" t="s">
-        <v>197</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>2245</v>
+        <v>1097</v>
       </c>
       <c r="B947" t="s">
-        <v>2246</v>
+        <v>1098</v>
       </c>
       <c r="C947" t="s">
         <v>1801</v>
       </c>
       <c r="D947" t="s">
-        <v>200</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>2247</v>
+        <v>2083</v>
       </c>
       <c r="B948" t="s">
-        <v>2248</v>
+        <v>2084</v>
       </c>
       <c r="C948" t="s">
         <v>1801</v>
       </c>
       <c r="D948" t="s">
-        <v>200</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>198</v>
+        <v>2086</v>
       </c>
       <c r="B949" t="s">
-        <v>199</v>
+        <v>2087</v>
       </c>
       <c r="C949" t="s">
         <v>1801</v>
       </c>
       <c r="D949" t="s">
-        <v>200</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>2249</v>
+        <v>2089</v>
       </c>
       <c r="B950" t="s">
-        <v>2250</v>
+        <v>2090</v>
       </c>
       <c r="C950" t="s">
         <v>1801</v>
       </c>
       <c r="D950" t="s">
-        <v>203</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>2251</v>
+        <v>2092</v>
       </c>
       <c r="B951" t="s">
-        <v>2252</v>
+        <v>2093</v>
       </c>
       <c r="C951" t="s">
         <v>1801</v>
       </c>
       <c r="D951" t="s">
-        <v>1341</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>2253</v>
+        <v>2095</v>
       </c>
       <c r="B952" t="s">
-        <v>2254</v>
+        <v>2096</v>
       </c>
       <c r="C952" t="s">
         <v>1801</v>
       </c>
       <c r="D952" t="s">
-        <v>1341</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>2255</v>
+        <v>1102</v>
       </c>
       <c r="B953" t="s">
-        <v>2256</v>
+        <v>1103</v>
       </c>
       <c r="C953" t="s">
         <v>1801</v>
       </c>
       <c r="D953" t="s">
-        <v>1341</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>2257</v>
+        <v>2098</v>
       </c>
       <c r="B954" t="s">
-        <v>2258</v>
+        <v>2099</v>
       </c>
       <c r="C954" t="s">
         <v>1801</v>
       </c>
       <c r="D954" t="s">
-        <v>1341</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>2259</v>
+        <v>2101</v>
       </c>
       <c r="B955" t="s">
-        <v>2260</v>
+        <v>2102</v>
       </c>
       <c r="C955" t="s">
         <v>1801</v>
       </c>
       <c r="D955" t="s">
-        <v>1344</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>2261</v>
+        <v>1107</v>
       </c>
       <c r="B956" t="s">
-        <v>2262</v>
+        <v>1108</v>
       </c>
       <c r="C956" t="s">
         <v>1801</v>
       </c>
       <c r="D956" t="s">
-        <v>1344</v>
+        <v>66</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>2263</v>
+        <v>1109</v>
       </c>
       <c r="B957" t="s">
-        <v>2264</v>
+        <v>1110</v>
       </c>
       <c r="C957" t="s">
         <v>1801</v>
       </c>
       <c r="D957" t="s">
-        <v>1344</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>2265</v>
+        <v>1112</v>
       </c>
       <c r="B958" t="s">
-        <v>2266</v>
+        <v>1113</v>
       </c>
       <c r="C958" t="s">
         <v>1801</v>
       </c>
       <c r="D958" t="s">
-        <v>1344</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>204</v>
+        <v>1114</v>
       </c>
       <c r="B959" t="s">
-        <v>205</v>
+        <v>1115</v>
       </c>
       <c r="C959" t="s">
         <v>1801</v>
       </c>
       <c r="D959" t="s">
-        <v>206</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>207</v>
+        <v>2104</v>
       </c>
       <c r="B960" t="s">
-        <v>208</v>
+        <v>2105</v>
       </c>
       <c r="C960" t="s">
         <v>1801</v>
       </c>
       <c r="D960" t="s">
-        <v>209</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>2267</v>
+        <v>2107</v>
       </c>
       <c r="B961" t="s">
-        <v>2268</v>
+        <v>2108</v>
       </c>
       <c r="C961" t="s">
         <v>1801</v>
       </c>
       <c r="D961" t="s">
-        <v>209</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>210</v>
+        <v>2109</v>
       </c>
       <c r="B962" t="s">
-        <v>211</v>
+        <v>2110</v>
       </c>
       <c r="C962" t="s">
         <v>1801</v>
       </c>
       <c r="D962" t="s">
-        <v>209</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>212</v>
+        <v>2112</v>
       </c>
       <c r="B963" t="s">
-        <v>213</v>
+        <v>2113</v>
       </c>
       <c r="C963" t="s">
         <v>1801</v>
       </c>
       <c r="D963" t="s">
-        <v>214</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>1345</v>
+        <v>73</v>
       </c>
       <c r="B964" t="s">
-        <v>1346</v>
+        <v>74</v>
       </c>
       <c r="C964" t="s">
         <v>1801</v>
       </c>
       <c r="D964" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>1347</v>
+        <v>75</v>
       </c>
       <c r="B965" t="s">
-        <v>1348</v>
+        <v>76</v>
       </c>
       <c r="C965" t="s">
         <v>1801</v>
       </c>
       <c r="D965" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>1349</v>
+        <v>1137</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1138</v>
       </c>
       <c r="C966" t="s">
         <v>1801</v>
       </c>
       <c r="D966" t="s">
-        <v>217</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>2269</v>
+        <v>2115</v>
       </c>
       <c r="B967" t="s">
-        <v>2270</v>
+        <v>2116</v>
       </c>
       <c r="C967" t="s">
         <v>1801</v>
       </c>
       <c r="D967" t="s">
-        <v>2271</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>2272</v>
+        <v>2118</v>
       </c>
       <c r="B968" t="s">
-        <v>2273</v>
+        <v>2119</v>
       </c>
       <c r="C968" t="s">
         <v>1801</v>
       </c>
       <c r="D968" t="s">
-        <v>2271</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>2274</v>
+        <v>84</v>
       </c>
       <c r="B969" t="s">
-        <v>2275</v>
+        <v>85</v>
       </c>
       <c r="C969" t="s">
         <v>1801</v>
       </c>
       <c r="D969" t="s">
-        <v>2276</v>
+        <v>86</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>218</v>
+        <v>2121</v>
       </c>
       <c r="B970" t="s">
-        <v>219</v>
+        <v>2122</v>
       </c>
       <c r="C970" t="s">
         <v>1801</v>
       </c>
       <c r="D970" t="s">
-        <v>220</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>221</v>
+        <v>2124</v>
       </c>
       <c r="B971" t="s">
-        <v>222</v>
+        <v>2125</v>
       </c>
       <c r="C971" t="s">
         <v>1801</v>
       </c>
       <c r="D971" t="s">
-        <v>220</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>2277</v>
+        <v>2127</v>
       </c>
       <c r="B972" t="s">
-        <v>2278</v>
+        <v>2128</v>
       </c>
       <c r="C972" t="s">
         <v>1801</v>
       </c>
       <c r="D972" t="s">
-        <v>224</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>2279</v>
+        <v>2130</v>
       </c>
       <c r="B973" t="s">
-        <v>2280</v>
+        <v>2131</v>
       </c>
       <c r="C973" t="s">
         <v>1801</v>
       </c>
       <c r="D973" t="s">
-        <v>227</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>2281</v>
+        <v>1146</v>
       </c>
       <c r="B974" t="s">
-        <v>2282</v>
+        <v>1147</v>
       </c>
       <c r="C974" t="s">
         <v>1801</v>
       </c>
       <c r="D974" t="s">
-        <v>227</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>1352</v>
+        <v>2132</v>
       </c>
       <c r="B975" t="s">
-        <v>1353</v>
+        <v>2133</v>
       </c>
       <c r="C975" t="s">
         <v>1801</v>
       </c>
       <c r="D975" t="s">
-        <v>234</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>2283</v>
+        <v>1155</v>
       </c>
       <c r="B976" t="s">
-        <v>2284</v>
+        <v>1156</v>
       </c>
       <c r="C976" t="s">
         <v>1801</v>
       </c>
       <c r="D976" t="s">
-        <v>240</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>2285</v>
+        <v>2135</v>
       </c>
       <c r="B977" t="s">
-        <v>2286</v>
+        <v>2136</v>
       </c>
       <c r="C977" t="s">
         <v>1801</v>
       </c>
       <c r="D977" t="s">
-        <v>2287</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>2288</v>
+        <v>1161</v>
       </c>
       <c r="B978" t="s">
-        <v>2289</v>
+        <v>1162</v>
       </c>
       <c r="C978" t="s">
         <v>1801</v>
       </c>
       <c r="D978" t="s">
-        <v>243</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>254</v>
+        <v>2137</v>
       </c>
       <c r="B979" t="s">
-        <v>255</v>
+        <v>2138</v>
       </c>
       <c r="C979" t="s">
         <v>1801</v>
       </c>
       <c r="D979" t="s">
-        <v>256</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>2290</v>
+        <v>2139</v>
       </c>
       <c r="B980" t="s">
-        <v>2291</v>
+        <v>2140</v>
       </c>
       <c r="C980" t="s">
         <v>1801</v>
       </c>
       <c r="D980" t="s">
-        <v>256</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="B981" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="C981" t="s">
         <v>1801</v>
       </c>
       <c r="D981" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>2292</v>
+        <v>2141</v>
       </c>
       <c r="B982" t="s">
-        <v>2293</v>
+        <v>2142</v>
       </c>
       <c r="C982" t="s">
         <v>1801</v>
       </c>
       <c r="D982" t="s">
-        <v>266</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>2294</v>
+        <v>1167</v>
       </c>
       <c r="B983" t="s">
-        <v>2295</v>
+        <v>1168</v>
       </c>
       <c r="C983" t="s">
         <v>1801</v>
       </c>
       <c r="D983" t="s">
-        <v>269</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>2296</v>
+        <v>1170</v>
       </c>
       <c r="B984" t="s">
-        <v>2297</v>
+        <v>1171</v>
       </c>
       <c r="C984" t="s">
         <v>1801</v>
       </c>
       <c r="D984" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>2298</v>
+        <v>2144</v>
       </c>
       <c r="B985" t="s">
-        <v>2299</v>
+        <v>2145</v>
       </c>
       <c r="C985" t="s">
         <v>1801</v>
       </c>
       <c r="D985" t="s">
-        <v>269</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>2300</v>
+        <v>1179</v>
       </c>
       <c r="B986" t="s">
-        <v>2301</v>
+        <v>1180</v>
       </c>
       <c r="C986" t="s">
         <v>1801</v>
       </c>
       <c r="D986" t="s">
-        <v>272</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>270</v>
+        <v>1190</v>
       </c>
       <c r="B987" t="s">
-        <v>271</v>
+        <v>1191</v>
       </c>
       <c r="C987" t="s">
         <v>1801</v>
       </c>
       <c r="D987" t="s">
-        <v>272</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>2302</v>
+        <v>1197</v>
       </c>
       <c r="B988" t="s">
-        <v>2303</v>
+        <v>1198</v>
       </c>
       <c r="C988" t="s">
         <v>1801</v>
       </c>
       <c r="D988" t="s">
-        <v>272</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>2304</v>
+        <v>2147</v>
       </c>
       <c r="B989" t="s">
-        <v>2305</v>
+        <v>2148</v>
       </c>
       <c r="C989" t="s">
         <v>1801</v>
       </c>
       <c r="D989" t="s">
-        <v>1371</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>1369</v>
+        <v>1206</v>
       </c>
       <c r="B990" t="s">
-        <v>1370</v>
+        <v>1207</v>
       </c>
       <c r="C990" t="s">
         <v>1801</v>
       </c>
       <c r="D990" t="s">
-        <v>1371</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>2306</v>
+        <v>1209</v>
       </c>
       <c r="B991" t="s">
-        <v>2307</v>
+        <v>1210</v>
       </c>
       <c r="C991" t="s">
         <v>1801</v>
       </c>
       <c r="D991" t="s">
-        <v>1371</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1372</v>
+        <v>2149</v>
       </c>
       <c r="B992" t="s">
-        <v>1373</v>
+        <v>2150</v>
       </c>
       <c r="C992" t="s">
         <v>1801</v>
       </c>
       <c r="D992" t="s">
-        <v>1371</v>
+        <v>106</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>2308</v>
+        <v>104</v>
       </c>
       <c r="B993" t="s">
-        <v>2309</v>
+        <v>105</v>
       </c>
       <c r="C993" t="s">
         <v>1801</v>
       </c>
       <c r="D993" t="s">
-        <v>1371</v>
+        <v>106</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>2310</v>
+        <v>2151</v>
       </c>
       <c r="B994" t="s">
-        <v>2311</v>
+        <v>2152</v>
       </c>
       <c r="C994" t="s">
         <v>1801</v>
       </c>
       <c r="D994" t="s">
-        <v>275</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>273</v>
+        <v>2154</v>
       </c>
       <c r="B995" t="s">
-        <v>274</v>
+        <v>2155</v>
       </c>
       <c r="C995" t="s">
         <v>1801</v>
       </c>
       <c r="D995" t="s">
-        <v>275</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>2312</v>
+        <v>2156</v>
       </c>
       <c r="B996" t="s">
-        <v>2313</v>
+        <v>2157</v>
       </c>
       <c r="C996" t="s">
         <v>1801</v>
       </c>
       <c r="D996" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>276</v>
+        <v>2158</v>
       </c>
       <c r="B997" t="s">
-        <v>277</v>
+        <v>2159</v>
       </c>
       <c r="C997" t="s">
         <v>1801</v>
       </c>
       <c r="D997" t="s">
-        <v>275</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>2314</v>
+        <v>2161</v>
       </c>
       <c r="B998" t="s">
-        <v>2315</v>
+        <v>2162</v>
       </c>
       <c r="C998" t="s">
         <v>1801</v>
       </c>
       <c r="D998" t="s">
-        <v>275</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>2316</v>
+        <v>2164</v>
       </c>
       <c r="B999" t="s">
-        <v>2317</v>
+        <v>2165</v>
       </c>
       <c r="C999" t="s">
         <v>1801</v>
       </c>
       <c r="D999" t="s">
-        <v>275</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>2318</v>
+        <v>1218</v>
       </c>
       <c r="B1000" t="s">
-        <v>2319</v>
+        <v>1219</v>
       </c>
       <c r="C1000" t="s">
         <v>1801</v>
       </c>
       <c r="D1000" t="s">
-        <v>280</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>2320</v>
+        <v>2166</v>
       </c>
       <c r="B1001" t="s">
-        <v>2321</v>
+        <v>2167</v>
       </c>
       <c r="C1001" t="s">
         <v>1801</v>
       </c>
       <c r="D1001" t="s">
-        <v>280</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>278</v>
+        <v>2169</v>
       </c>
       <c r="B1002" t="s">
-        <v>279</v>
+        <v>2170</v>
       </c>
       <c r="C1002" t="s">
         <v>1801</v>
       </c>
       <c r="D1002" t="s">
-        <v>280</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>2322</v>
+        <v>2171</v>
       </c>
       <c r="B1003" t="s">
-        <v>2323</v>
+        <v>2172</v>
       </c>
       <c r="C1003" t="s">
         <v>1801</v>
       </c>
       <c r="D1003" t="s">
-        <v>280</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>2324</v>
+        <v>2174</v>
       </c>
       <c r="B1004" t="s">
-        <v>2325</v>
+        <v>2175</v>
       </c>
       <c r="C1004" t="s">
         <v>1801</v>
       </c>
       <c r="D1004" t="s">
-        <v>280</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>2326</v>
+        <v>2177</v>
       </c>
       <c r="B1005" t="s">
-        <v>2327</v>
+        <v>2178</v>
       </c>
       <c r="C1005" t="s">
         <v>1801</v>
       </c>
       <c r="D1005" t="s">
-        <v>1376</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>2328</v>
+        <v>1249</v>
       </c>
       <c r="B1006" t="s">
-        <v>2329</v>
+        <v>1250</v>
       </c>
       <c r="C1006" t="s">
         <v>1801</v>
       </c>
       <c r="D1006" t="s">
-        <v>1376</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>1374</v>
+        <v>2180</v>
       </c>
       <c r="B1007" t="s">
-        <v>1375</v>
+        <v>2181</v>
       </c>
       <c r="C1007" t="s">
         <v>1801</v>
       </c>
       <c r="D1007" t="s">
-        <v>1376</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>2330</v>
+        <v>1252</v>
       </c>
       <c r="B1008" t="s">
-        <v>2331</v>
+        <v>1253</v>
       </c>
       <c r="C1008" t="s">
         <v>1801</v>
       </c>
       <c r="D1008" t="s">
-        <v>1376</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>2332</v>
+        <v>119</v>
       </c>
       <c r="B1009" t="s">
-        <v>2333</v>
+        <v>120</v>
       </c>
       <c r="C1009" t="s">
         <v>1801</v>
       </c>
       <c r="D1009" t="s">
-        <v>283</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>2334</v>
+        <v>1260</v>
       </c>
       <c r="B1010" t="s">
-        <v>2335</v>
+        <v>1261</v>
       </c>
       <c r="C1010" t="s">
         <v>1801</v>
       </c>
       <c r="D1010" t="s">
-        <v>283</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>1377</v>
+        <v>131</v>
       </c>
       <c r="B1011" t="s">
-        <v>1378</v>
+        <v>132</v>
       </c>
       <c r="C1011" t="s">
         <v>1801</v>
       </c>
       <c r="D1011" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>2336</v>
+        <v>1272</v>
       </c>
       <c r="B1012" t="s">
-        <v>2337</v>
+        <v>1273</v>
       </c>
       <c r="C1012" t="s">
         <v>1801</v>
       </c>
       <c r="D1012" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="B1013" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="C1013" t="s">
         <v>1801</v>
       </c>
       <c r="D1013" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>2338</v>
+        <v>2183</v>
       </c>
       <c r="B1014" t="s">
-        <v>2339</v>
+        <v>2184</v>
       </c>
       <c r="C1014" t="s">
         <v>1801</v>
       </c>
       <c r="D1014" t="s">
-        <v>283</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>2340</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>2341</v>
+        <v>2186</v>
       </c>
       <c r="C1015" t="s">
         <v>1801</v>
       </c>
       <c r="D1015" t="s">
-        <v>286</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>1379</v>
+        <v>2188</v>
       </c>
       <c r="B1016" t="s">
-        <v>1380</v>
+        <v>2189</v>
       </c>
       <c r="C1016" t="s">
         <v>1801</v>
       </c>
       <c r="D1016" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>2342</v>
+        <v>2190</v>
       </c>
       <c r="B1017" t="s">
-        <v>2343</v>
+        <v>2191</v>
       </c>
       <c r="C1017" t="s">
         <v>1801</v>
       </c>
       <c r="D1017" t="s">
-        <v>286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>1381</v>
+        <v>2192</v>
       </c>
       <c r="B1018" t="s">
-        <v>1382</v>
+        <v>2193</v>
       </c>
       <c r="C1018" t="s">
         <v>1801</v>
       </c>
       <c r="D1018" t="s">
-        <v>286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>1383</v>
+        <v>154</v>
       </c>
       <c r="B1019" t="s">
-        <v>1384</v>
+        <v>155</v>
       </c>
       <c r="C1019" t="s">
         <v>1801</v>
       </c>
       <c r="D1019" t="s">
-        <v>286</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>1385</v>
+        <v>2194</v>
       </c>
       <c r="B1020" t="s">
-        <v>1386</v>
+        <v>2195</v>
       </c>
       <c r="C1020" t="s">
         <v>1801</v>
       </c>
       <c r="D1020" t="s">
-        <v>1387</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>2344</v>
+        <v>1286</v>
       </c>
       <c r="B1021" t="s">
-        <v>2345</v>
+        <v>1287</v>
       </c>
       <c r="C1021" t="s">
         <v>1801</v>
       </c>
       <c r="D1021" t="s">
-        <v>1387</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>2346</v>
+        <v>163</v>
       </c>
       <c r="B1022" t="s">
-        <v>2347</v>
+        <v>164</v>
       </c>
       <c r="C1022" t="s">
         <v>1801</v>
       </c>
       <c r="D1022" t="s">
-        <v>1387</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>1388</v>
+        <v>2196</v>
       </c>
       <c r="B1023" t="s">
-        <v>1389</v>
+        <v>2197</v>
       </c>
       <c r="C1023" t="s">
         <v>1801</v>
       </c>
       <c r="D1023" t="s">
-        <v>1387</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>2348</v>
+        <v>2198</v>
       </c>
       <c r="B1024" t="s">
-        <v>2349</v>
+        <v>2199</v>
       </c>
       <c r="C1024" t="s">
         <v>1801</v>
       </c>
       <c r="D1024" t="s">
-        <v>2350</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>2351</v>
+        <v>166</v>
       </c>
       <c r="B1025" t="s">
-        <v>2352</v>
+        <v>167</v>
       </c>
       <c r="C1025" t="s">
         <v>1801</v>
       </c>
       <c r="D1025" t="s">
-        <v>2350</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>2353</v>
+        <v>2201</v>
       </c>
       <c r="B1026" t="s">
-        <v>2354</v>
+        <v>2202</v>
       </c>
       <c r="C1026" t="s">
         <v>1801</v>
       </c>
       <c r="D1026" t="s">
-        <v>1392</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>1390</v>
+        <v>1300</v>
       </c>
       <c r="B1027" t="s">
-        <v>1391</v>
+        <v>1301</v>
       </c>
       <c r="C1027" t="s">
         <v>1801</v>
       </c>
       <c r="D1027" t="s">
-        <v>1392</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>2355</v>
+        <v>1311</v>
       </c>
       <c r="B1028" t="s">
-        <v>2356</v>
+        <v>1312</v>
       </c>
       <c r="C1028" t="s">
         <v>1801</v>
       </c>
       <c r="D1028" t="s">
-        <v>1392</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>2357</v>
+        <v>2203</v>
       </c>
       <c r="B1029" t="s">
-        <v>2358</v>
+        <v>2204</v>
       </c>
       <c r="C1029" t="s">
         <v>1801</v>
       </c>
       <c r="D1029" t="s">
-        <v>1395</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>2359</v>
-      </c>
-      <c r="B1030" t="s">
-        <v>2360</v>
+        <v>2206</v>
       </c>
       <c r="C1030" t="s">
         <v>1801</v>
       </c>
       <c r="D1030" t="s">
-        <v>1395</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>2361</v>
+        <v>2207</v>
       </c>
       <c r="B1031" t="s">
-        <v>2362</v>
+        <v>2208</v>
       </c>
       <c r="C1031" t="s">
         <v>1801</v>
       </c>
       <c r="D1031" t="s">
-        <v>1395</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>1393</v>
+        <v>2209</v>
       </c>
       <c r="B1032" t="s">
-        <v>1394</v>
+        <v>2210</v>
       </c>
       <c r="C1032" t="s">
         <v>1801</v>
       </c>
       <c r="D1032" t="s">
-        <v>1395</v>
+        <v>186</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>2363</v>
+        <v>2211</v>
       </c>
       <c r="B1033" t="s">
-        <v>2364</v>
+        <v>2212</v>
       </c>
       <c r="C1033" t="s">
         <v>1801</v>
       </c>
       <c r="D1033" t="s">
-        <v>1398</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
-        <v>1396</v>
+        <v>2214</v>
       </c>
       <c r="B1034" t="s">
-        <v>1397</v>
+        <v>2215</v>
       </c>
       <c r="C1034" t="s">
         <v>1801</v>
       </c>
       <c r="D1034" t="s">
-        <v>1398</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>2365</v>
+        <v>2216</v>
       </c>
       <c r="B1035" t="s">
-        <v>2366</v>
+        <v>2217</v>
       </c>
       <c r="C1035" t="s">
         <v>1801</v>
       </c>
       <c r="D1035" t="s">
-        <v>1398</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
-        <v>2367</v>
+        <v>2218</v>
       </c>
       <c r="B1036" t="s">
-        <v>2368</v>
+        <v>2219</v>
       </c>
       <c r="C1036" t="s">
         <v>1801</v>
       </c>
       <c r="D1036" t="s">
-        <v>2369</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>2370</v>
+        <v>2221</v>
       </c>
       <c r="B1037" t="s">
-        <v>2371</v>
+        <v>2222</v>
       </c>
       <c r="C1037" t="s">
         <v>1801</v>
       </c>
       <c r="D1037" t="s">
-        <v>2369</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>1399</v>
+        <v>2223</v>
       </c>
       <c r="B1038" t="s">
-        <v>1400</v>
+        <v>2224</v>
       </c>
       <c r="C1038" t="s">
         <v>1801</v>
       </c>
       <c r="D1038" t="s">
-        <v>1401</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>2372</v>
+        <v>2225</v>
       </c>
       <c r="B1039" t="s">
-        <v>2373</v>
+        <v>2226</v>
       </c>
       <c r="C1039" t="s">
         <v>1801</v>
       </c>
       <c r="D1039" t="s">
-        <v>2374</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>2375</v>
+        <v>2227</v>
       </c>
       <c r="B1040" t="s">
-        <v>2376</v>
+        <v>2228</v>
       </c>
       <c r="C1040" t="s">
         <v>1801</v>
       </c>
       <c r="D1040" t="s">
-        <v>2374</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>289</v>
+        <v>2229</v>
       </c>
       <c r="B1041" t="s">
-        <v>290</v>
+        <v>2230</v>
       </c>
       <c r="C1041" t="s">
         <v>1801</v>
       </c>
       <c r="D1041" t="s">
-        <v>291</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>292</v>
+        <v>2231</v>
       </c>
       <c r="B1042" t="s">
-        <v>293</v>
+        <v>2232</v>
       </c>
       <c r="C1042" t="s">
         <v>1801</v>
       </c>
       <c r="D1042" t="s">
-        <v>291</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>1405</v>
+        <v>2233</v>
       </c>
       <c r="B1043" t="s">
-        <v>1406</v>
+        <v>2234</v>
       </c>
       <c r="C1043" t="s">
         <v>1801</v>
       </c>
       <c r="D1043" t="s">
-        <v>295</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>294</v>
+        <v>1327</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1328</v>
       </c>
       <c r="C1044" t="s">
         <v>1801</v>
       </c>
       <c r="D1044" t="s">
-        <v>295</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>296</v>
+        <v>2235</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2236</v>
       </c>
       <c r="C1045" t="s">
         <v>1801</v>
       </c>
       <c r="D1045" t="s">
-        <v>297</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>298</v>
+        <v>2237</v>
       </c>
       <c r="B1046" t="s">
-        <v>299</v>
+        <v>2238</v>
       </c>
       <c r="C1046" t="s">
         <v>1801</v>
       </c>
       <c r="D1046" t="s">
-        <v>297</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>2377</v>
+        <v>2239</v>
       </c>
       <c r="B1047" t="s">
-        <v>2378</v>
+        <v>2240</v>
       </c>
       <c r="C1047" t="s">
         <v>1801</v>
       </c>
       <c r="D1047" t="s">
-        <v>2379</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>2380</v>
+        <v>2241</v>
       </c>
       <c r="B1048" t="s">
-        <v>2381</v>
+        <v>2242</v>
       </c>
       <c r="C1048" t="s">
         <v>1801</v>
       </c>
       <c r="D1048" t="s">
-        <v>2382</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>2383</v>
+        <v>2243</v>
       </c>
       <c r="B1049" t="s">
-        <v>2384</v>
+        <v>2244</v>
       </c>
       <c r="C1049" t="s">
         <v>1801</v>
       </c>
       <c r="D1049" t="s">
-        <v>2385</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>1419</v>
+        <v>195</v>
       </c>
       <c r="B1050" t="s">
-        <v>1420</v>
+        <v>196</v>
       </c>
       <c r="C1050" t="s">
         <v>1801</v>
       </c>
       <c r="D1050" t="s">
-        <v>1421</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>2386</v>
+        <v>2245</v>
       </c>
       <c r="B1051" t="s">
-        <v>2387</v>
+        <v>2246</v>
       </c>
       <c r="C1051" t="s">
         <v>1801</v>
       </c>
       <c r="D1051" t="s">
-        <v>2388</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>2389</v>
+        <v>2247</v>
       </c>
       <c r="B1052" t="s">
-        <v>2390</v>
+        <v>2248</v>
       </c>
       <c r="C1052" t="s">
         <v>1801</v>
       </c>
       <c r="D1052" t="s">
-        <v>2391</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>2392</v>
+        <v>198</v>
       </c>
       <c r="B1053" t="s">
-        <v>2393</v>
+        <v>199</v>
       </c>
       <c r="C1053" t="s">
         <v>1801</v>
       </c>
       <c r="D1053" t="s">
-        <v>2394</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>2395</v>
+        <v>2249</v>
       </c>
       <c r="B1054" t="s">
-        <v>2396</v>
+        <v>2250</v>
       </c>
       <c r="C1054" t="s">
         <v>1801</v>
       </c>
       <c r="D1054" t="s">
-        <v>2397</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>2398</v>
+        <v>2251</v>
       </c>
       <c r="B1055" t="s">
-        <v>2399</v>
+        <v>2252</v>
       </c>
       <c r="C1055" t="s">
         <v>1801</v>
       </c>
       <c r="D1055" t="s">
-        <v>2400</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>2401</v>
+        <v>2253</v>
       </c>
       <c r="B1056" t="s">
-        <v>2402</v>
+        <v>2254</v>
       </c>
       <c r="C1056" t="s">
         <v>1801</v>
       </c>
       <c r="D1056" t="s">
-        <v>2403</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>2404</v>
+        <v>2255</v>
       </c>
       <c r="B1057" t="s">
-        <v>2405</v>
+        <v>2256</v>
       </c>
       <c r="C1057" t="s">
         <v>1801</v>
       </c>
       <c r="D1057" t="s">
-        <v>2406</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>2407</v>
+        <v>2257</v>
       </c>
       <c r="B1058" t="s">
-        <v>2408</v>
+        <v>2258</v>
       </c>
       <c r="C1058" t="s">
         <v>1801</v>
       </c>
       <c r="D1058" t="s">
-        <v>2406</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>2409</v>
+        <v>2259</v>
       </c>
       <c r="B1059" t="s">
-        <v>2410</v>
+        <v>2260</v>
       </c>
       <c r="C1059" t="s">
         <v>1801</v>
       </c>
       <c r="D1059" t="s">
-        <v>2411</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>2412</v>
+        <v>2261</v>
       </c>
       <c r="B1060" t="s">
-        <v>2413</v>
+        <v>2262</v>
       </c>
       <c r="C1060" t="s">
         <v>1801</v>
       </c>
       <c r="D1060" t="s">
-        <v>2414</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>2415</v>
+        <v>2263</v>
       </c>
       <c r="B1061" t="s">
-        <v>2416</v>
+        <v>2264</v>
       </c>
       <c r="C1061" t="s">
         <v>1801</v>
       </c>
       <c r="D1061" t="s">
-        <v>2417</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>2418</v>
+        <v>2265</v>
       </c>
       <c r="B1062" t="s">
-        <v>2419</v>
+        <v>2266</v>
       </c>
       <c r="C1062" t="s">
         <v>1801</v>
       </c>
       <c r="D1062" t="s">
-        <v>2420</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>2421</v>
+        <v>204</v>
       </c>
       <c r="B1063" t="s">
-        <v>2422</v>
+        <v>205</v>
       </c>
       <c r="C1063" t="s">
         <v>1801</v>
       </c>
       <c r="D1063" t="s">
-        <v>2423</v>
+        <v>206</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>2424</v>
+        <v>207</v>
       </c>
       <c r="B1064" t="s">
-        <v>2425</v>
+        <v>208</v>
       </c>
       <c r="C1064" t="s">
         <v>1801</v>
       </c>
       <c r="D1064" t="s">
-        <v>2426</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>314</v>
+        <v>2267</v>
       </c>
       <c r="B1065" t="s">
-        <v>315</v>
+        <v>2268</v>
       </c>
       <c r="C1065" t="s">
         <v>1801</v>
       </c>
       <c r="D1065" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>2427</v>
+        <v>210</v>
       </c>
       <c r="B1066" t="s">
-        <v>2428</v>
+        <v>211</v>
       </c>
       <c r="C1066" t="s">
         <v>1801</v>
       </c>
       <c r="D1066" t="s">
-        <v>2429</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="B1067" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="C1067" t="s">
         <v>1801</v>
       </c>
       <c r="D1067" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>2430</v>
+        <v>1345</v>
       </c>
       <c r="B1068" t="s">
-        <v>2431</v>
+        <v>1346</v>
       </c>
       <c r="C1068" t="s">
         <v>1801</v>
       </c>
       <c r="D1068" t="s">
-        <v>2432</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>2433</v>
+        <v>1347</v>
       </c>
       <c r="B1069" t="s">
-        <v>2434</v>
+        <v>1348</v>
       </c>
       <c r="C1069" t="s">
         <v>1801</v>
       </c>
       <c r="D1069" t="s">
-        <v>2435</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>340</v>
+        <v>1349</v>
       </c>
       <c r="C1070" t="s">
         <v>1801</v>
       </c>
       <c r="D1070" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>344</v>
+        <v>2269</v>
       </c>
       <c r="B1071" t="s">
-        <v>345</v>
+        <v>2270</v>
       </c>
       <c r="C1071" t="s">
         <v>1801</v>
       </c>
       <c r="D1071" t="s">
-        <v>346</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>1437</v>
+        <v>2272</v>
       </c>
       <c r="B1072" t="s">
-        <v>1438</v>
+        <v>2273</v>
       </c>
       <c r="C1072" t="s">
         <v>1801</v>
       </c>
       <c r="D1072" t="s">
-        <v>346</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>2436</v>
+        <v>2274</v>
       </c>
       <c r="B1073" t="s">
-        <v>2437</v>
+        <v>2275</v>
       </c>
       <c r="C1073" t="s">
         <v>1801</v>
       </c>
       <c r="D1073" t="s">
-        <v>2438</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>2439</v>
+        <v>218</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>219</v>
       </c>
       <c r="C1074" t="s">
         <v>1801</v>
       </c>
       <c r="D1074" t="s">
-        <v>2440</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>2441</v>
+        <v>221</v>
       </c>
       <c r="B1075" t="s">
-        <v>2442</v>
+        <v>222</v>
       </c>
       <c r="C1075" t="s">
         <v>1801</v>
       </c>
       <c r="D1075" t="s">
-        <v>349</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>2443</v>
+        <v>2277</v>
       </c>
       <c r="B1076" t="s">
-        <v>2444</v>
+        <v>2278</v>
       </c>
       <c r="C1076" t="s">
         <v>1801</v>
       </c>
       <c r="D1076" t="s">
-        <v>2445</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>2446</v>
+        <v>2279</v>
       </c>
       <c r="B1077" t="s">
-        <v>2447</v>
+        <v>2280</v>
       </c>
       <c r="C1077" t="s">
         <v>1801</v>
       </c>
       <c r="D1077" t="s">
-        <v>2445</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>353</v>
+        <v>2281</v>
       </c>
       <c r="B1078" t="s">
-        <v>354</v>
+        <v>2282</v>
       </c>
       <c r="C1078" t="s">
         <v>1801</v>
       </c>
       <c r="D1078" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>1439</v>
+        <v>1352</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1353</v>
       </c>
       <c r="C1079" t="s">
         <v>1801</v>
       </c>
       <c r="D1079" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>2448</v>
+        <v>2283</v>
       </c>
       <c r="B1080" t="s">
-        <v>2449</v>
+        <v>2284</v>
       </c>
       <c r="C1080" t="s">
         <v>1801</v>
       </c>
       <c r="D1080" t="s">
-        <v>2450</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>2451</v>
+        <v>2285</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2286</v>
       </c>
       <c r="C1081" t="s">
         <v>1801</v>
       </c>
       <c r="D1081" t="s">
-        <v>2450</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>2452</v>
+        <v>2288</v>
       </c>
       <c r="B1082" t="s">
-        <v>2453</v>
+        <v>2289</v>
       </c>
       <c r="C1082" t="s">
         <v>1801</v>
       </c>
       <c r="D1082" t="s">
-        <v>2454</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>1440</v>
+        <v>254</v>
       </c>
       <c r="B1083" t="s">
-        <v>1441</v>
+        <v>255</v>
       </c>
       <c r="C1083" t="s">
         <v>1801</v>
       </c>
       <c r="D1083" t="s">
-        <v>1442</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>2455</v>
+        <v>2290</v>
       </c>
       <c r="B1084" t="s">
-        <v>2456</v>
+        <v>2291</v>
       </c>
       <c r="C1084" t="s">
         <v>1801</v>
       </c>
       <c r="D1084" t="s">
-        <v>1446</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>2457</v>
+        <v>260</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>261</v>
       </c>
       <c r="C1085" t="s">
         <v>1801</v>
       </c>
       <c r="D1085" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>2458</v>
+        <v>2292</v>
       </c>
       <c r="B1086" t="s">
-        <v>2459</v>
+        <v>2293</v>
       </c>
       <c r="C1086" t="s">
         <v>1801</v>
       </c>
       <c r="D1086" t="s">
-        <v>2460</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>2461</v>
+        <v>2294</v>
       </c>
       <c r="B1087" t="s">
-        <v>2462</v>
+        <v>2295</v>
       </c>
       <c r="C1087" t="s">
         <v>1801</v>
       </c>
       <c r="D1087" t="s">
-        <v>2463</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>2464</v>
+        <v>2296</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2297</v>
       </c>
       <c r="C1088" t="s">
         <v>1801</v>
       </c>
       <c r="D1088" t="s">
-        <v>2465</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>2466</v>
+        <v>2298</v>
       </c>
       <c r="B1089" t="s">
-        <v>2467</v>
+        <v>2299</v>
       </c>
       <c r="C1089" t="s">
         <v>1801</v>
       </c>
       <c r="D1089" t="s">
-        <v>2468</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>2469</v>
+        <v>2300</v>
       </c>
       <c r="B1090" t="s">
-        <v>2470</v>
+        <v>2301</v>
       </c>
       <c r="C1090" t="s">
         <v>1801</v>
       </c>
       <c r="D1090" t="s">
-        <v>2471</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>2472</v>
+        <v>270</v>
       </c>
       <c r="B1091" t="s">
-        <v>2473</v>
+        <v>271</v>
       </c>
       <c r="C1091" t="s">
         <v>1801</v>
       </c>
       <c r="D1091" t="s">
-        <v>2474</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>2475</v>
+        <v>2302</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2303</v>
       </c>
       <c r="C1092" t="s">
         <v>1801</v>
       </c>
       <c r="D1092" t="s">
-        <v>2474</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>2476</v>
+        <v>2304</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2305</v>
       </c>
       <c r="C1093" t="s">
         <v>1801</v>
       </c>
       <c r="D1093" t="s">
-        <v>2477</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>2478</v>
+        <v>1369</v>
       </c>
       <c r="B1094" t="s">
-        <v>2479</v>
+        <v>1370</v>
       </c>
       <c r="C1094" t="s">
         <v>1801</v>
       </c>
       <c r="D1094" t="s">
-        <v>2477</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>1447</v>
+        <v>2306</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2307</v>
       </c>
       <c r="C1095" t="s">
         <v>1801</v>
       </c>
       <c r="D1095" t="s">
-        <v>1448</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>1452</v>
+        <v>1372</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1373</v>
       </c>
       <c r="C1096" t="s">
         <v>1801</v>
       </c>
       <c r="D1096" t="s">
-        <v>1453</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>362</v>
+        <v>2308</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2309</v>
       </c>
       <c r="C1097" t="s">
         <v>1801</v>
       </c>
       <c r="D1097" t="s">
-        <v>363</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>2480</v>
+        <v>2310</v>
       </c>
       <c r="B1098" t="s">
-        <v>2481</v>
+        <v>2311</v>
       </c>
       <c r="C1098" t="s">
         <v>1801</v>
       </c>
       <c r="D1098" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>2482</v>
+        <v>273</v>
       </c>
       <c r="B1099" t="s">
-        <v>2483</v>
+        <v>274</v>
       </c>
       <c r="C1099" t="s">
         <v>1801</v>
       </c>
       <c r="D1099" t="s">
-        <v>2484</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>2485</v>
+        <v>2312</v>
       </c>
       <c r="B1100" t="s">
-        <v>2486</v>
+        <v>2313</v>
       </c>
       <c r="C1100" t="s">
         <v>1801</v>
       </c>
       <c r="D1100" t="s">
-        <v>2487</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>1463</v>
+        <v>276</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>277</v>
       </c>
       <c r="C1101" t="s">
         <v>1801</v>
       </c>
       <c r="D1101" t="s">
-        <v>1464</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>2488</v>
+        <v>2314</v>
       </c>
       <c r="B1102" t="s">
-        <v>2489</v>
+        <v>2315</v>
       </c>
       <c r="C1102" t="s">
         <v>1801</v>
       </c>
       <c r="D1102" t="s">
-        <v>384</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>2490</v>
+        <v>2316</v>
       </c>
       <c r="B1103" t="s">
-        <v>2491</v>
+        <v>2317</v>
       </c>
       <c r="C1103" t="s">
         <v>1801</v>
       </c>
       <c r="D1103" t="s">
-        <v>386</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>2492</v>
+        <v>2318</v>
       </c>
       <c r="B1104" t="s">
-        <v>2493</v>
+        <v>2319</v>
       </c>
       <c r="C1104" t="s">
         <v>1801</v>
       </c>
       <c r="D1104" t="s">
-        <v>2494</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>2495</v>
+        <v>2320</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2321</v>
       </c>
       <c r="C1105" t="s">
         <v>1801</v>
       </c>
       <c r="D1105" t="s">
-        <v>389</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>2496</v>
+        <v>278</v>
       </c>
       <c r="B1106" t="s">
-        <v>2497</v>
+        <v>279</v>
       </c>
       <c r="C1106" t="s">
         <v>1801</v>
       </c>
       <c r="D1106" t="s">
-        <v>2498</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>2499</v>
+        <v>2322</v>
       </c>
       <c r="B1107" t="s">
-        <v>2500</v>
+        <v>2323</v>
       </c>
       <c r="C1107" t="s">
         <v>1801</v>
       </c>
       <c r="D1107" t="s">
-        <v>2498</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>390</v>
+        <v>2324</v>
       </c>
       <c r="B1108" t="s">
-        <v>391</v>
+        <v>2325</v>
       </c>
       <c r="C1108" t="s">
         <v>1801</v>
       </c>
       <c r="D1108" t="s">
-        <v>392</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>393</v>
+        <v>2326</v>
       </c>
       <c r="B1109" t="s">
-        <v>394</v>
+        <v>2327</v>
       </c>
       <c r="C1109" t="s">
         <v>1801</v>
       </c>
       <c r="D1109" t="s">
-        <v>392</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>2501</v>
+        <v>2328</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2329</v>
       </c>
       <c r="C1110" t="s">
         <v>1801</v>
       </c>
       <c r="D1110" t="s">
-        <v>2502</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1467</v>
+        <v>1374</v>
       </c>
       <c r="B1111" t="s">
-        <v>1468</v>
+        <v>1375</v>
       </c>
       <c r="C1111" t="s">
         <v>1801</v>
       </c>
       <c r="D1111" t="s">
-        <v>1469</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>395</v>
+        <v>2330</v>
       </c>
       <c r="B1112" t="s">
-        <v>396</v>
+        <v>2331</v>
       </c>
       <c r="C1112" t="s">
         <v>1801</v>
       </c>
       <c r="D1112" t="s">
-        <v>397</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>2503</v>
+        <v>2332</v>
       </c>
       <c r="B1113" t="s">
-        <v>2504</v>
+        <v>2333</v>
       </c>
       <c r="C1113" t="s">
         <v>1801</v>
       </c>
       <c r="D1113" t="s">
-        <v>2505</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>2506</v>
+        <v>2334</v>
       </c>
       <c r="B1114" t="s">
-        <v>2507</v>
+        <v>2335</v>
       </c>
       <c r="C1114" t="s">
         <v>1801</v>
       </c>
       <c r="D1114" t="s">
-        <v>2505</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>398</v>
+        <v>1377</v>
       </c>
       <c r="B1115" t="s">
-        <v>399</v>
+        <v>1378</v>
       </c>
       <c r="C1115" t="s">
         <v>1801</v>
       </c>
       <c r="D1115" t="s">
-        <v>400</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>2508</v>
+        <v>2336</v>
       </c>
       <c r="B1116" t="s">
-        <v>2509</v>
+        <v>2337</v>
       </c>
       <c r="C1116" t="s">
         <v>1801</v>
       </c>
       <c r="D1116" t="s">
-        <v>400</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>2510</v>
+        <v>281</v>
       </c>
       <c r="B1117" t="s">
-        <v>2511</v>
+        <v>282</v>
       </c>
       <c r="C1117" t="s">
         <v>1801</v>
       </c>
       <c r="D1117" t="s">
-        <v>1474</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>2512</v>
+        <v>2338</v>
       </c>
       <c r="B1118" t="s">
-        <v>2513</v>
+        <v>2339</v>
       </c>
       <c r="C1118" t="s">
         <v>1801</v>
       </c>
       <c r="D1118" t="s">
-        <v>2514</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>2515</v>
+        <v>2340</v>
       </c>
       <c r="B1119" t="s">
-        <v>2516</v>
+        <v>2341</v>
       </c>
       <c r="C1119" t="s">
         <v>1801</v>
       </c>
       <c r="D1119" t="s">
-        <v>1477</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>2517</v>
+        <v>1379</v>
       </c>
       <c r="B1120" t="s">
-        <v>2518</v>
+        <v>1380</v>
       </c>
       <c r="C1120" t="s">
         <v>1801</v>
       </c>
       <c r="D1120" t="s">
-        <v>1477</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>2519</v>
+        <v>2342</v>
       </c>
       <c r="B1121" t="s">
-        <v>2520</v>
+        <v>2343</v>
       </c>
       <c r="C1121" t="s">
         <v>1801</v>
       </c>
       <c r="D1121" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>404</v>
+        <v>1381</v>
       </c>
       <c r="B1122" t="s">
-        <v>405</v>
+        <v>1382</v>
       </c>
       <c r="C1122" t="s">
         <v>1801</v>
       </c>
       <c r="D1122" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>2521</v>
+        <v>1383</v>
       </c>
       <c r="B1123" t="s">
-        <v>2522</v>
+        <v>1384</v>
       </c>
       <c r="C1123" t="s">
         <v>1801</v>
       </c>
       <c r="D1123" t="s">
-        <v>2523</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>2524</v>
+        <v>1385</v>
       </c>
       <c r="B1124" t="s">
-        <v>2525</v>
+        <v>1386</v>
       </c>
       <c r="C1124" t="s">
         <v>1801</v>
       </c>
       <c r="D1124" t="s">
-        <v>2523</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>2526</v>
+        <v>2344</v>
       </c>
       <c r="B1125" t="s">
-        <v>2527</v>
+        <v>2345</v>
       </c>
       <c r="C1125" t="s">
         <v>1801</v>
       </c>
       <c r="D1125" t="s">
-        <v>2528</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>2529</v>
+        <v>2346</v>
       </c>
       <c r="B1126" t="s">
-        <v>2530</v>
+        <v>2347</v>
       </c>
       <c r="C1126" t="s">
         <v>1801</v>
       </c>
       <c r="D1126" t="s">
-        <v>2528</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>2531</v>
+        <v>1388</v>
       </c>
       <c r="B1127" t="s">
-        <v>2532</v>
+        <v>1389</v>
       </c>
       <c r="C1127" t="s">
         <v>1801</v>
       </c>
       <c r="D1127" t="s">
-        <v>2533</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>2534</v>
+        <v>2348</v>
       </c>
       <c r="B1128" t="s">
-        <v>2535</v>
+        <v>2349</v>
       </c>
       <c r="C1128" t="s">
         <v>1801</v>
       </c>
       <c r="D1128" t="s">
-        <v>2536</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>2537</v>
+        <v>2351</v>
       </c>
       <c r="B1129" t="s">
-        <v>2538</v>
+        <v>2352</v>
       </c>
       <c r="C1129" t="s">
         <v>1801</v>
       </c>
       <c r="D1129" t="s">
-        <v>2536</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>2539</v>
+        <v>2353</v>
       </c>
       <c r="B1130" t="s">
-        <v>2540</v>
+        <v>2354</v>
       </c>
       <c r="C1130" t="s">
         <v>1801</v>
       </c>
       <c r="D1130" t="s">
-        <v>2541</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>2542</v>
+        <v>1390</v>
       </c>
       <c r="B1131" t="s">
-        <v>2543</v>
+        <v>1391</v>
       </c>
       <c r="C1131" t="s">
         <v>1801</v>
       </c>
       <c r="D1131" t="s">
-        <v>417</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>2544</v>
+        <v>2355</v>
       </c>
       <c r="B1132" t="s">
-        <v>2545</v>
+        <v>2356</v>
       </c>
       <c r="C1132" t="s">
         <v>1801</v>
       </c>
       <c r="D1132" t="s">
-        <v>420</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>421</v>
+        <v>2357</v>
       </c>
       <c r="B1133" t="s">
-        <v>422</v>
+        <v>2358</v>
       </c>
       <c r="C1133" t="s">
         <v>1801</v>
       </c>
       <c r="D1133" t="s">
-        <v>420</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>2546</v>
+        <v>2359</v>
       </c>
       <c r="B1134" t="s">
-        <v>2547</v>
+        <v>2360</v>
       </c>
       <c r="C1134" t="s">
         <v>1801</v>
       </c>
       <c r="D1134" t="s">
-        <v>2548</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>2549</v>
+        <v>2361</v>
       </c>
       <c r="B1135" t="s">
-        <v>2550</v>
+        <v>2362</v>
       </c>
       <c r="C1135" t="s">
         <v>1801</v>
       </c>
       <c r="D1135" t="s">
-        <v>2548</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>2551</v>
+        <v>1393</v>
       </c>
       <c r="B1136" t="s">
-        <v>2552</v>
+        <v>1394</v>
       </c>
       <c r="C1136" t="s">
         <v>1801</v>
       </c>
       <c r="D1136" t="s">
-        <v>1488</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>1489</v>
+        <v>2363</v>
       </c>
       <c r="B1137" t="s">
-        <v>1490</v>
+        <v>2364</v>
       </c>
       <c r="C1137" t="s">
         <v>1801</v>
       </c>
       <c r="D1137" t="s">
-        <v>1491</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>1492</v>
+        <v>1396</v>
       </c>
       <c r="B1138" t="s">
-        <v>1493</v>
+        <v>1397</v>
       </c>
       <c r="C1138" t="s">
         <v>1801</v>
       </c>
       <c r="D1138" t="s">
-        <v>1494</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>2553</v>
+        <v>2365</v>
       </c>
       <c r="B1139" t="s">
-        <v>2554</v>
+        <v>2366</v>
       </c>
       <c r="C1139" t="s">
         <v>1801</v>
       </c>
       <c r="D1139" t="s">
-        <v>2555</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>2556</v>
+        <v>2367</v>
       </c>
       <c r="B1140" t="s">
-        <v>2557</v>
+        <v>2368</v>
       </c>
       <c r="C1140" t="s">
         <v>1801</v>
       </c>
       <c r="D1140" t="s">
-        <v>2558</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>2559</v>
+        <v>2370</v>
       </c>
       <c r="B1141" t="s">
-        <v>2560</v>
+        <v>2371</v>
       </c>
       <c r="C1141" t="s">
         <v>1801</v>
       </c>
       <c r="D1141" t="s">
-        <v>2558</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>2561</v>
+        <v>1399</v>
       </c>
       <c r="B1142" t="s">
-        <v>2562</v>
+        <v>1400</v>
       </c>
       <c r="C1142" t="s">
         <v>1801</v>
       </c>
       <c r="D1142" t="s">
-        <v>1497</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>2563</v>
+        <v>2372</v>
       </c>
       <c r="B1143" t="s">
-        <v>2564</v>
+        <v>2373</v>
       </c>
       <c r="C1143" t="s">
         <v>1801</v>
       </c>
       <c r="D1143" t="s">
-        <v>1497</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>2565</v>
+        <v>2375</v>
       </c>
       <c r="B1144" t="s">
-        <v>2566</v>
+        <v>2376</v>
       </c>
       <c r="C1144" t="s">
         <v>1801</v>
       </c>
       <c r="D1144" t="s">
-        <v>2567</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>2568</v>
+        <v>289</v>
       </c>
       <c r="B1145" t="s">
-        <v>2569</v>
+        <v>290</v>
       </c>
       <c r="C1145" t="s">
         <v>1801</v>
       </c>
       <c r="D1145" t="s">
-        <v>2567</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>2570</v>
+        <v>292</v>
       </c>
       <c r="B1146" t="s">
-        <v>2571</v>
+        <v>293</v>
       </c>
       <c r="C1146" t="s">
         <v>1801</v>
       </c>
       <c r="D1146" t="s">
-        <v>2567</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>2572</v>
+        <v>1405</v>
       </c>
       <c r="B1147" t="s">
-        <v>2573</v>
+        <v>1406</v>
       </c>
       <c r="C1147" t="s">
         <v>1801</v>
       </c>
       <c r="D1147" t="s">
-        <v>1500</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>2575</v>
+        <v>294</v>
       </c>
       <c r="C1148" t="s">
         <v>1801</v>
       </c>
       <c r="D1148" t="s">
-        <v>2576</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>2578</v>
+        <v>296</v>
       </c>
       <c r="C1149" t="s">
         <v>1801</v>
       </c>
       <c r="D1149" t="s">
-        <v>2576</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>2579</v>
+        <v>298</v>
       </c>
       <c r="B1150" t="s">
-        <v>2580</v>
+        <v>299</v>
       </c>
       <c r="C1150" t="s">
         <v>1801</v>
       </c>
       <c r="D1150" t="s">
-        <v>2576</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>1501</v>
+        <v>2377</v>
       </c>
       <c r="B1151" t="s">
-        <v>1502</v>
+        <v>2378</v>
       </c>
       <c r="C1151" t="s">
         <v>1801</v>
       </c>
       <c r="D1151" t="s">
-        <v>1503</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>2581</v>
+        <v>2380</v>
       </c>
       <c r="B1152" t="s">
-        <v>2582</v>
+        <v>2381</v>
       </c>
       <c r="C1152" t="s">
         <v>1801</v>
       </c>
       <c r="D1152" t="s">
-        <v>1503</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>2583</v>
+        <v>2383</v>
       </c>
       <c r="B1153" t="s">
-        <v>2584</v>
+        <v>2384</v>
       </c>
       <c r="C1153" t="s">
         <v>1801</v>
       </c>
       <c r="D1153" t="s">
-        <v>428</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>2585</v>
+        <v>1419</v>
       </c>
       <c r="B1154" t="s">
-        <v>2586</v>
+        <v>1420</v>
       </c>
       <c r="C1154" t="s">
         <v>1801</v>
       </c>
       <c r="D1154" t="s">
-        <v>428</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>426</v>
+        <v>2386</v>
       </c>
       <c r="B1155" t="s">
-        <v>427</v>
+        <v>2387</v>
       </c>
       <c r="C1155" t="s">
         <v>1801</v>
       </c>
       <c r="D1155" t="s">
-        <v>428</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>429</v>
+        <v>2389</v>
       </c>
       <c r="B1156" t="s">
-        <v>430</v>
+        <v>2390</v>
       </c>
       <c r="C1156" t="s">
         <v>1801</v>
       </c>
       <c r="D1156" t="s">
-        <v>431</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>2587</v>
+        <v>2392</v>
       </c>
       <c r="B1157" t="s">
-        <v>2588</v>
+        <v>2393</v>
       </c>
       <c r="C1157" t="s">
         <v>1801</v>
       </c>
       <c r="D1157" t="s">
-        <v>1506</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>2589</v>
+        <v>2395</v>
       </c>
       <c r="B1158" t="s">
-        <v>2590</v>
+        <v>2396</v>
       </c>
       <c r="C1158" t="s">
         <v>1801</v>
       </c>
       <c r="D1158" t="s">
-        <v>1512</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
-        <v>998</v>
+        <v>2398</v>
       </c>
       <c r="B1159" t="s">
-        <v>999</v>
+        <v>2399</v>
       </c>
       <c r="C1159" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1159" t="s">
-        <v>1001</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
-        <v>1002</v>
+        <v>2401</v>
       </c>
       <c r="B1160" t="s">
-        <v>1003</v>
+        <v>2402</v>
       </c>
       <c r="C1160" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1160" t="s">
-        <v>1004</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>1005</v>
+        <v>2404</v>
       </c>
       <c r="B1161" t="s">
-        <v>1006</v>
+        <v>2405</v>
       </c>
       <c r="C1161" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1161" t="s">
-        <v>1007</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>2030</v>
+        <v>2407</v>
       </c>
       <c r="B1162" t="s">
-        <v>2031</v>
+        <v>2408</v>
       </c>
       <c r="C1162" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1162" t="s">
-        <v>2032</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>2033</v>
+        <v>2409</v>
       </c>
       <c r="B1163" t="s">
-        <v>2034</v>
+        <v>2410</v>
       </c>
       <c r="C1163" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1163" t="s">
-        <v>1013</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>2035</v>
+        <v>2412</v>
       </c>
       <c r="B1164" t="s">
-        <v>2036</v>
+        <v>2413</v>
       </c>
       <c r="C1164" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1164" t="s">
-        <v>1026</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>2037</v>
+        <v>2415</v>
       </c>
       <c r="B1165" t="s">
-        <v>2038</v>
+        <v>2416</v>
       </c>
       <c r="C1165" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1165" t="s">
-        <v>1026</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>2039</v>
+        <v>2418</v>
       </c>
       <c r="B1166" t="s">
-        <v>2040</v>
+        <v>2419</v>
       </c>
       <c r="C1166" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1166" t="s">
-        <v>2041</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>2591</v>
+        <v>2421</v>
       </c>
       <c r="B1167" t="s">
-        <v>2592</v>
+        <v>2422</v>
       </c>
       <c r="C1167" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1167" t="s">
-        <v>2593</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>2042</v>
+        <v>2424</v>
       </c>
       <c r="B1168" t="s">
-        <v>2043</v>
+        <v>2425</v>
       </c>
       <c r="C1168" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1168" t="s">
-        <v>21</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>2044</v>
+        <v>314</v>
       </c>
       <c r="B1169" t="s">
-        <v>2045</v>
+        <v>315</v>
       </c>
       <c r="C1169" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1169" t="s">
-        <v>21</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>2046</v>
+        <v>2427</v>
       </c>
       <c r="B1170" t="s">
-        <v>2047</v>
+        <v>2428</v>
       </c>
       <c r="C1170" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1170" t="s">
-        <v>21</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>2048</v>
+        <v>328</v>
       </c>
       <c r="B1171" t="s">
-        <v>2049</v>
+        <v>329</v>
       </c>
       <c r="C1171" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1171" t="s">
-        <v>21</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>2052</v>
+        <v>2430</v>
       </c>
       <c r="B1172" t="s">
-        <v>2053</v>
+        <v>2431</v>
       </c>
       <c r="C1172" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1172" t="s">
-        <v>21</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>2054</v>
+        <v>2433</v>
       </c>
       <c r="B1173" t="s">
-        <v>2055</v>
+        <v>2434</v>
       </c>
       <c r="C1173" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1173" t="s">
-        <v>21</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>1052</v>
+        <v>339</v>
       </c>
       <c r="B1174" t="s">
-        <v>1053</v>
+        <v>340</v>
       </c>
       <c r="C1174" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1174" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>1056</v>
+        <v>344</v>
       </c>
       <c r="B1175" t="s">
-        <v>1057</v>
+        <v>345</v>
       </c>
       <c r="C1175" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1175" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>2058</v>
+        <v>1437</v>
       </c>
       <c r="B1176" t="s">
-        <v>2059</v>
+        <v>1438</v>
       </c>
       <c r="C1176" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1176" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>1080</v>
+        <v>2436</v>
       </c>
       <c r="B1177" t="s">
-        <v>1081</v>
+        <v>2437</v>
       </c>
       <c r="C1177" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1177" t="s">
-        <v>41</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B1178" t="s">
-        <v>2061</v>
+        <v>2439</v>
       </c>
       <c r="C1178" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1178" t="s">
-        <v>1087</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>2071</v>
+        <v>2441</v>
       </c>
       <c r="B1179" t="s">
-        <v>2072</v>
+        <v>2442</v>
       </c>
       <c r="C1179" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1179" t="s">
-        <v>2073</v>
+        <v>349</v>
       </c>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>50</v>
+        <v>2443</v>
       </c>
       <c r="B1180" t="s">
-        <v>51</v>
+        <v>2444</v>
       </c>
       <c r="C1180" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1180" t="s">
-        <v>52</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>2081</v>
+        <v>2446</v>
       </c>
       <c r="B1181" t="s">
-        <v>2082</v>
+        <v>2447</v>
       </c>
       <c r="C1181" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1181" t="s">
-        <v>1096</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>1100</v>
+        <v>353</v>
       </c>
       <c r="B1182" t="s">
-        <v>1101</v>
+        <v>354</v>
       </c>
       <c r="C1182" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1182" t="s">
-        <v>1099</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>2594</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>2595</v>
+        <v>1439</v>
       </c>
       <c r="C1183" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1183" t="s">
-        <v>2085</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>2092</v>
+        <v>2448</v>
       </c>
       <c r="B1184" t="s">
-        <v>2093</v>
+        <v>2449</v>
       </c>
       <c r="C1184" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1184" t="s">
-        <v>2094</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>2095</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>2096</v>
+        <v>2451</v>
       </c>
       <c r="C1185" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1185" t="s">
-        <v>2097</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>1102</v>
+        <v>2452</v>
       </c>
       <c r="B1186" t="s">
-        <v>1103</v>
+        <v>2453</v>
       </c>
       <c r="C1186" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1186" t="s">
-        <v>1104</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>1105</v>
+        <v>1440</v>
       </c>
       <c r="B1187" t="s">
-        <v>1106</v>
+        <v>1441</v>
       </c>
       <c r="C1187" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1187" t="s">
-        <v>1104</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>55</v>
+        <v>2455</v>
       </c>
       <c r="B1188" t="s">
-        <v>56</v>
+        <v>2456</v>
       </c>
       <c r="C1188" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1188" t="s">
-        <v>57</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>2098</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>2099</v>
+        <v>2457</v>
       </c>
       <c r="C1189" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1189" t="s">
-        <v>2100</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>2101</v>
+        <v>2458</v>
       </c>
       <c r="B1190" t="s">
-        <v>2102</v>
+        <v>2459</v>
       </c>
       <c r="C1190" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1190" t="s">
-        <v>2103</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>1112</v>
+        <v>2461</v>
       </c>
       <c r="B1191" t="s">
-        <v>1113</v>
+        <v>2462</v>
       </c>
       <c r="C1191" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1191" t="s">
-        <v>1111</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>1115</v>
+        <v>2464</v>
       </c>
       <c r="C1192" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1192" t="s">
-        <v>1111</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>67</v>
+        <v>2466</v>
       </c>
       <c r="B1193" t="s">
-        <v>68</v>
+        <v>2467</v>
       </c>
       <c r="C1193" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1193" t="s">
-        <v>69</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>2107</v>
+        <v>2469</v>
       </c>
       <c r="B1194" t="s">
-        <v>2108</v>
+        <v>2470</v>
       </c>
       <c r="C1194" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1194" t="s">
-        <v>2106</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>1119</v>
+        <v>2472</v>
       </c>
       <c r="B1195" t="s">
-        <v>1120</v>
+        <v>2473</v>
       </c>
       <c r="C1195" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1195" t="s">
-        <v>1121</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>2597</v>
+        <v>2475</v>
       </c>
       <c r="C1196" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1196" t="s">
-        <v>1121</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>2599</v>
+        <v>2476</v>
       </c>
       <c r="C1197" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1197" t="s">
-        <v>2600</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>1134</v>
+        <v>2478</v>
       </c>
       <c r="B1198" t="s">
-        <v>1135</v>
+        <v>2479</v>
       </c>
       <c r="C1198" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1198" t="s">
-        <v>1136</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>2116</v>
+        <v>1447</v>
       </c>
       <c r="C1199" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1199" t="s">
-        <v>2117</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>2119</v>
+        <v>1452</v>
       </c>
       <c r="C1200" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1200" t="s">
-        <v>2120</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="C1201" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1201" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>2121</v>
+        <v>2480</v>
       </c>
       <c r="B1202" t="s">
-        <v>2122</v>
+        <v>2481</v>
       </c>
       <c r="C1202" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1202" t="s">
-        <v>2123</v>
+        <v>374</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>2137</v>
+        <v>2482</v>
       </c>
       <c r="B1203" t="s">
-        <v>2138</v>
+        <v>2483</v>
       </c>
       <c r="C1203" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1203" t="s">
-        <v>1166</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>2139</v>
+        <v>2485</v>
       </c>
       <c r="B1204" t="s">
-        <v>2140</v>
+        <v>2486</v>
       </c>
       <c r="C1204" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1204" t="s">
-        <v>1166</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>2601</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>2602</v>
+        <v>1463</v>
       </c>
       <c r="C1205" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1205" t="s">
-        <v>2603</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>2144</v>
+        <v>2488</v>
       </c>
       <c r="B1206" t="s">
-        <v>2145</v>
+        <v>2489</v>
       </c>
       <c r="C1206" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1206" t="s">
-        <v>2146</v>
+        <v>384</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>2604</v>
+        <v>2490</v>
       </c>
       <c r="B1207" t="s">
-        <v>2605</v>
+        <v>2491</v>
       </c>
       <c r="C1207" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1207" t="s">
-        <v>103</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>1190</v>
+        <v>2492</v>
       </c>
       <c r="B1208" t="s">
-        <v>1191</v>
+        <v>2493</v>
       </c>
       <c r="C1208" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1208" t="s">
-        <v>1189</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>1195</v>
+        <v>2495</v>
       </c>
       <c r="C1209" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1209" t="s">
-        <v>1196</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>1197</v>
+        <v>2496</v>
       </c>
       <c r="B1210" t="s">
-        <v>1198</v>
+        <v>2497</v>
       </c>
       <c r="C1210" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1210" t="s">
-        <v>1199</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>2606</v>
+        <v>2499</v>
       </c>
       <c r="B1211" t="s">
-        <v>2607</v>
+        <v>2500</v>
       </c>
       <c r="C1211" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1211" t="s">
-        <v>1199</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>2608</v>
+        <v>390</v>
       </c>
       <c r="B1212" t="s">
-        <v>2609</v>
+        <v>391</v>
       </c>
       <c r="C1212" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1212" t="s">
-        <v>2610</v>
+        <v>392</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>2147</v>
+        <v>393</v>
       </c>
       <c r="B1213" t="s">
-        <v>2148</v>
+        <v>394</v>
       </c>
       <c r="C1213" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1213" t="s">
-        <v>1208</v>
+        <v>392</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>2150</v>
+        <v>2501</v>
       </c>
       <c r="C1214" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1214" t="s">
-        <v>106</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>2156</v>
+        <v>1467</v>
       </c>
       <c r="B1215" t="s">
-        <v>2157</v>
+        <v>1468</v>
       </c>
       <c r="C1215" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1215" t="s">
-        <v>109</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>1218</v>
+        <v>395</v>
       </c>
       <c r="B1216" t="s">
-        <v>1219</v>
+        <v>396</v>
       </c>
       <c r="C1216" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1216" t="s">
-        <v>1220</v>
+        <v>397</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>2169</v>
+        <v>2503</v>
       </c>
       <c r="B1217" t="s">
-        <v>2170</v>
+        <v>2504</v>
       </c>
       <c r="C1217" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1217" t="s">
-        <v>2168</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>2171</v>
+        <v>2506</v>
       </c>
       <c r="B1218" t="s">
-        <v>2172</v>
+        <v>2507</v>
       </c>
       <c r="C1218" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1218" t="s">
-        <v>2173</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>113</v>
+        <v>398</v>
       </c>
       <c r="B1219" t="s">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="C1219" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1219" t="s">
-        <v>115</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>1234</v>
+        <v>2508</v>
       </c>
       <c r="B1220" t="s">
-        <v>1235</v>
+        <v>2509</v>
       </c>
       <c r="C1220" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1220" t="s">
-        <v>1236</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>2611</v>
+        <v>2510</v>
       </c>
       <c r="B1221" t="s">
-        <v>2612</v>
+        <v>2511</v>
       </c>
       <c r="C1221" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1221" t="s">
-        <v>2613</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>134</v>
+        <v>2512</v>
       </c>
       <c r="B1222" t="s">
-        <v>135</v>
+        <v>2513</v>
       </c>
       <c r="C1222" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1222" t="s">
-        <v>136</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>2614</v>
+        <v>2515</v>
       </c>
       <c r="B1223" t="s">
-        <v>2615</v>
+        <v>2516</v>
       </c>
       <c r="C1223" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1223" t="s">
-        <v>2616</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>2183</v>
+        <v>2517</v>
       </c>
       <c r="B1224" t="s">
-        <v>2184</v>
+        <v>2518</v>
       </c>
       <c r="C1224" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1224" t="s">
-        <v>2185</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>2194</v>
+        <v>2519</v>
       </c>
       <c r="B1225" t="s">
-        <v>2195</v>
+        <v>2520</v>
       </c>
       <c r="C1225" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1225" t="s">
-        <v>156</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>2198</v>
+        <v>404</v>
       </c>
       <c r="B1226" t="s">
-        <v>2199</v>
+        <v>405</v>
       </c>
       <c r="C1226" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1226" t="s">
-        <v>2200</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>2617</v>
+        <v>2521</v>
       </c>
       <c r="B1227" t="s">
-        <v>2618</v>
+        <v>2522</v>
       </c>
       <c r="C1227" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1227" t="s">
-        <v>2619</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>2201</v>
+        <v>2524</v>
       </c>
       <c r="B1228" t="s">
-        <v>2202</v>
+        <v>2525</v>
       </c>
       <c r="C1228" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1228" t="s">
-        <v>168</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>2203</v>
+        <v>2526</v>
       </c>
       <c r="B1229" t="s">
-        <v>2204</v>
+        <v>2527</v>
       </c>
       <c r="C1229" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1229" t="s">
-        <v>2205</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>2206</v>
+        <v>2529</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2530</v>
       </c>
       <c r="C1230" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1230" t="s">
-        <v>2205</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>181</v>
+        <v>2531</v>
       </c>
       <c r="B1231" t="s">
-        <v>182</v>
+        <v>2532</v>
       </c>
       <c r="C1231" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1231" t="s">
-        <v>183</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>2223</v>
+        <v>2534</v>
       </c>
       <c r="B1232" t="s">
-        <v>2224</v>
+        <v>2535</v>
       </c>
       <c r="C1232" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1232" t="s">
-        <v>2220</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>2225</v>
+        <v>2537</v>
       </c>
       <c r="B1233" t="s">
-        <v>2226</v>
+        <v>2538</v>
       </c>
       <c r="C1233" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1233" t="s">
-        <v>1326</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>2231</v>
+        <v>2539</v>
       </c>
       <c r="B1234" t="s">
-        <v>2232</v>
+        <v>2540</v>
       </c>
       <c r="C1234" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1234" t="s">
-        <v>1329</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>2235</v>
+        <v>2542</v>
       </c>
       <c r="B1235" t="s">
-        <v>2236</v>
+        <v>2543</v>
       </c>
       <c r="C1235" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1235" t="s">
-        <v>1329</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>2255</v>
+        <v>2544</v>
       </c>
       <c r="B1236" t="s">
-        <v>2256</v>
+        <v>2545</v>
       </c>
       <c r="C1236" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1236" t="s">
-        <v>1341</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>2265</v>
+        <v>421</v>
       </c>
       <c r="B1237" t="s">
-        <v>2266</v>
+        <v>422</v>
       </c>
       <c r="C1237" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1237" t="s">
-        <v>1344</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>1342</v>
+        <v>2546</v>
       </c>
       <c r="B1238" t="s">
-        <v>1343</v>
+        <v>2547</v>
       </c>
       <c r="C1238" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1238" t="s">
-        <v>1344</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>2274</v>
+        <v>2549</v>
       </c>
       <c r="B1239" t="s">
-        <v>2275</v>
+        <v>2550</v>
       </c>
       <c r="C1239" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1239" t="s">
-        <v>2276</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>2277</v>
+        <v>2551</v>
       </c>
       <c r="B1240" t="s">
-        <v>2278</v>
+        <v>2552</v>
       </c>
       <c r="C1240" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1240" t="s">
-        <v>224</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>225</v>
+        <v>1489</v>
       </c>
       <c r="B1241" t="s">
-        <v>226</v>
+        <v>1490</v>
       </c>
       <c r="C1241" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1241" t="s">
-        <v>227</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>2620</v>
+        <v>1492</v>
       </c>
       <c r="B1242" t="s">
-        <v>2621</v>
+        <v>1493</v>
       </c>
       <c r="C1242" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1242" t="s">
-        <v>227</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>2281</v>
+        <v>2553</v>
       </c>
       <c r="B1243" t="s">
-        <v>2282</v>
+        <v>2554</v>
       </c>
       <c r="C1243" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1243" t="s">
-        <v>227</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>2288</v>
+        <v>2556</v>
       </c>
       <c r="B1244" t="s">
-        <v>2289</v>
+        <v>2557</v>
       </c>
       <c r="C1244" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1244" t="s">
-        <v>243</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>252</v>
+        <v>2559</v>
       </c>
       <c r="B1245" t="s">
-        <v>253</v>
+        <v>2560</v>
       </c>
       <c r="C1245" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1245" t="s">
-        <v>249</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>267</v>
+        <v>2561</v>
       </c>
       <c r="B1246" t="s">
-        <v>268</v>
+        <v>2562</v>
       </c>
       <c r="C1246" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1246" t="s">
-        <v>269</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>2296</v>
+        <v>2563</v>
       </c>
       <c r="B1247" t="s">
-        <v>2297</v>
+        <v>2564</v>
       </c>
       <c r="C1247" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1247" t="s">
-        <v>269</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>2302</v>
+        <v>2565</v>
       </c>
       <c r="B1248" t="s">
-        <v>2303</v>
+        <v>2566</v>
       </c>
       <c r="C1248" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1248" t="s">
-        <v>272</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>2312</v>
+        <v>2568</v>
       </c>
       <c r="B1249" t="s">
-        <v>2313</v>
+        <v>2569</v>
       </c>
       <c r="C1249" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1249" t="s">
-        <v>275</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>2316</v>
+        <v>2570</v>
       </c>
       <c r="B1250" t="s">
-        <v>2317</v>
+        <v>2571</v>
       </c>
       <c r="C1250" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1250" t="s">
-        <v>275</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>2326</v>
+        <v>2572</v>
       </c>
       <c r="B1251" t="s">
-        <v>2327</v>
+        <v>2573</v>
       </c>
       <c r="C1251" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1251" t="s">
-        <v>1376</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>287</v>
+        <v>2574</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2575</v>
       </c>
       <c r="C1252" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1252" t="s">
-        <v>288</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>289</v>
+        <v>2577</v>
       </c>
       <c r="B1253" t="s">
-        <v>290</v>
+        <v>2578</v>
       </c>
       <c r="C1253" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1253" t="s">
-        <v>291</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>292</v>
+        <v>2579</v>
       </c>
       <c r="B1254" t="s">
-        <v>293</v>
+        <v>2580</v>
       </c>
       <c r="C1254" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1254" t="s">
-        <v>291</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>294</v>
+        <v>1501</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1502</v>
       </c>
       <c r="C1255" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1255" t="s">
-        <v>295</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>296</v>
+        <v>2581</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2582</v>
       </c>
       <c r="C1256" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1256" t="s">
-        <v>297</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>298</v>
+        <v>2583</v>
       </c>
       <c r="B1257" t="s">
-        <v>299</v>
+        <v>2584</v>
       </c>
       <c r="C1257" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1257" t="s">
-        <v>297</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>303</v>
+        <v>2585</v>
       </c>
       <c r="B1258" t="s">
-        <v>304</v>
+        <v>2586</v>
       </c>
       <c r="C1258" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1258" t="s">
-        <v>305</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="B1259" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="C1259" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1259" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>309</v>
+        <v>429</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>430</v>
       </c>
       <c r="C1260" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1260" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>2457</v>
+        <v>2587</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2588</v>
       </c>
       <c r="C1261" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1261" t="s">
-        <v>361</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>2622</v>
+        <v>2589</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2590</v>
       </c>
       <c r="C1262" t="s">
-        <v>1000</v>
+        <v>1801</v>
       </c>
       <c r="D1262" t="s">
-        <v>1462</v>
+        <v>1512</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1262">
+    <sortCondition ref="C2:C1262"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
